--- a/data/eval_control.xlsx
+++ b/data/eval_control.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26327"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10409"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\winston\workspace\PyCharm\sinewave_analyze\data\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/rainyseason/winston/Workspace/python/Pycharm Project/sinewave_analyze/data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F80F1D13-D2E2-44D2-89E7-4D47ABFAB98E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{95072A9F-8C2F-B446-8116-2F60F9ED0EF9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="13410" yWindow="1410" windowWidth="43200" windowHeight="23475" tabRatio="846" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="13420" yWindow="1420" windowWidth="43200" windowHeight="23480" tabRatio="846" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="file name" sheetId="1" r:id="rId1"/>
@@ -32,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="310" uniqueCount="134">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="310" uniqueCount="138">
   <si>
     <t>filename</t>
   </si>
@@ -444,6 +444,22 @@
   </si>
   <si>
     <t>Ch2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Ch 1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Ch 2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Ch 3</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Ch 4</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -888,16 +904,16 @@
   <dimension ref="A1:G9"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="103" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="O32" sqref="O32"/>
+      <selection activeCell="D10" sqref="D10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.5546875" defaultRowHeight="17.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11.5703125" defaultRowHeight="18"/>
   <cols>
-    <col min="1" max="1" width="11.33203125" style="2" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="10.109375" style="2" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="9.88671875" style="2" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="8.44140625" style="2" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="6.21875" style="2" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="11.28515625" style="2" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="10.140625" style="2" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="9.85546875" style="2" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="8.42578125" style="2" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="6.28515625" style="2" bestFit="1" customWidth="1"/>
     <col min="6" max="7" width="15" style="2" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
@@ -932,7 +948,7 @@
         <v>300</v>
       </c>
       <c r="D2" s="5" t="s">
-        <v>124</v>
+        <v>134</v>
       </c>
       <c r="E2" s="5" t="s">
         <v>125</v>
@@ -949,7 +965,7 @@
         <v>300</v>
       </c>
       <c r="D3" s="5" t="s">
-        <v>133</v>
+        <v>135</v>
       </c>
       <c r="E3" s="5" t="s">
         <v>125</v>
@@ -966,7 +982,7 @@
         <v>300</v>
       </c>
       <c r="D4" s="5" t="s">
-        <v>117</v>
+        <v>136</v>
       </c>
       <c r="E4" s="5" t="s">
         <v>125</v>
@@ -983,7 +999,7 @@
         <v>300</v>
       </c>
       <c r="D5" s="5" t="s">
-        <v>116</v>
+        <v>137</v>
       </c>
       <c r="E5" s="5" t="s">
         <v>125</v>
@@ -1000,7 +1016,7 @@
         <v>300</v>
       </c>
       <c r="D6" s="5" t="s">
-        <v>124</v>
+        <v>134</v>
       </c>
       <c r="E6" s="5" t="s">
         <v>125</v>
@@ -1017,7 +1033,7 @@
         <v>300</v>
       </c>
       <c r="D7" s="5" t="s">
-        <v>133</v>
+        <v>135</v>
       </c>
       <c r="E7" s="5" t="s">
         <v>125</v>
@@ -1034,7 +1050,7 @@
         <v>300</v>
       </c>
       <c r="D8" s="5" t="s">
-        <v>117</v>
+        <v>136</v>
       </c>
       <c r="E8" s="5" t="s">
         <v>125</v>
@@ -1051,7 +1067,7 @@
         <v>300</v>
       </c>
       <c r="D9" s="5" t="s">
-        <v>116</v>
+        <v>137</v>
       </c>
       <c r="E9" s="5" t="s">
         <v>125</v>
@@ -1071,7 +1087,7 @@
       <selection activeCell="A4" sqref="A4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.77734375" defaultRowHeight="17.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.7109375" defaultRowHeight="18"/>
   <cols>
     <col min="1" max="1" width="12" style="2" customWidth="1"/>
   </cols>
@@ -1123,7 +1139,7 @@
       <selection activeCell="F10" sqref="F10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.77734375" defaultRowHeight="17.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.7109375" defaultRowHeight="18"/>
   <sheetData>
     <row r="1" spans="1:1">
       <c r="A1" t="s">
@@ -1159,10 +1175,10 @@
       <selection activeCell="F2" sqref="F2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.77734375" defaultRowHeight="17.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.7109375" defaultRowHeight="18"/>
   <cols>
-    <col min="1" max="1" width="22.44140625" style="2" bestFit="1" customWidth="1"/>
-    <col min="2" max="3" width="6.109375" style="2" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="22.42578125" style="2" bestFit="1" customWidth="1"/>
+    <col min="2" max="3" width="6.140625" style="2" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:3">
@@ -1198,9 +1214,9 @@
       <selection activeCell="D11" sqref="D11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.77734375" defaultRowHeight="17.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.7109375" defaultRowHeight="18"/>
   <cols>
-    <col min="1" max="1" width="28.77734375" style="2" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="28.7109375" style="2" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:6">
@@ -1277,13 +1293,13 @@
       <selection activeCell="E9" sqref="A2:E9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.5546875" defaultRowHeight="17.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11.5703125" defaultRowHeight="18"/>
   <cols>
-    <col min="1" max="1" width="11.44140625" style="2" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="10.77734375" style="2" customWidth="1"/>
-    <col min="3" max="3" width="6.77734375" style="2" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="7.77734375" style="2" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="14.77734375" style="2" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="11.42578125" style="2" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="10.7109375" style="2" customWidth="1"/>
+    <col min="3" max="3" width="6.7109375" style="2" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="7.7109375" style="2" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="14.7109375" style="2" bestFit="1" customWidth="1"/>
     <col min="6" max="7" width="15" style="2" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
@@ -2024,9 +2040,9 @@
       <selection activeCell="B12" sqref="B12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.77734375" defaultRowHeight="17.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.7109375" defaultRowHeight="18"/>
   <cols>
-    <col min="1" max="1" width="21.77734375" style="2" customWidth="1"/>
+    <col min="1" max="1" width="21.7109375" style="2" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:1">
@@ -2118,10 +2134,10 @@
       <selection activeCell="B15" sqref="B15"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.77734375" defaultRowHeight="17.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.7109375" defaultRowHeight="18"/>
   <cols>
     <col min="1" max="1" width="19" style="2" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="20.21875" style="2" customWidth="1"/>
+    <col min="2" max="2" width="20.28515625" style="2" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:2">
@@ -2264,11 +2280,11 @@
       <selection activeCell="F33" sqref="F33"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.77734375" defaultRowHeight="17.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.7109375" defaultRowHeight="18"/>
   <cols>
     <col min="1" max="1" width="19" style="2" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="20.21875" style="2" customWidth="1"/>
-    <col min="7" max="7" width="10.77734375" style="2" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="20.28515625" style="2" customWidth="1"/>
+    <col min="7" max="7" width="10.7109375" style="2" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:2">
@@ -2368,10 +2384,10 @@
       <selection activeCell="B25" sqref="B25"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.77734375" defaultRowHeight="17.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.7109375" defaultRowHeight="18"/>
   <cols>
     <col min="1" max="1" width="19" style="2" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="20.21875" style="2" customWidth="1"/>
+    <col min="2" max="2" width="20.28515625" style="2" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:2">
@@ -2524,10 +2540,10 @@
       <selection activeCell="C26" sqref="C26"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.77734375" defaultRowHeight="17.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.7109375" defaultRowHeight="18"/>
   <cols>
     <col min="1" max="1" width="21" style="2" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="16.109375" style="2" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="16.140625" style="2" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:3">
@@ -2657,11 +2673,11 @@
       <selection activeCell="B4" sqref="B4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="17.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.7109375" defaultRowHeight="18"/>
   <cols>
-    <col min="1" max="1" width="24.44140625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="12.77734375" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="8.5546875" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="24.42578125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="12.7109375" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="8.5703125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:3">
@@ -2759,7 +2775,7 @@
       <selection activeCell="A4" sqref="A4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.77734375" defaultRowHeight="17.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.7109375" defaultRowHeight="18"/>
   <cols>
     <col min="1" max="1" width="21" style="2" bestFit="1" customWidth="1"/>
   </cols>

--- a/data/eval_control.xlsx
+++ b/data/eval_control.xlsx
@@ -1,28 +1,28 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10409"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26327"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/rainyseason/winston/Workspace/python/Pycharm Project/sinewave_analyze/data/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\winston\workspace\PyCharm\sinewave_analyze\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{95072A9F-8C2F-B446-8116-2F60F9ED0EF9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F675F5E2-4132-4A78-B3F1-58A2975A462D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="13420" yWindow="1420" windowWidth="43200" windowHeight="23480" tabRatio="846" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="57840" yWindow="-20850" windowWidth="29040" windowHeight="15840" tabRatio="846" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="file name" sheetId="1" r:id="rId1"/>
     <sheet name="file name all" sheetId="2" r:id="rId2"/>
-    <sheet name="evaluation set" sheetId="4" r:id="rId3"/>
-    <sheet name="kmon monitoring set RFamp" sheetId="5" r:id="rId4"/>
-    <sheet name="kmon monitoring set main" sheetId="6" r:id="rId5"/>
-    <sheet name="kmon monitoring set elechub" sheetId="7" r:id="rId6"/>
-    <sheet name="kmon digit change set main" sheetId="8" r:id="rId7"/>
-    <sheet name="kmon digit change set RFamp" sheetId="15" r:id="rId8"/>
-    <sheet name="kmon digit change set elechub" sheetId="10" r:id="rId9"/>
-    <sheet name="info_test files" sheetId="11" r:id="rId10"/>
+    <sheet name="info_test files" sheetId="11" r:id="rId3"/>
+    <sheet name="evaluation set" sheetId="4" r:id="rId4"/>
+    <sheet name="kmon monitoring set RFamp" sheetId="5" r:id="rId5"/>
+    <sheet name="kmon monitoring set main" sheetId="6" r:id="rId6"/>
+    <sheet name="kmon monitoring set elechub" sheetId="7" r:id="rId7"/>
+    <sheet name="kmon digit change set main" sheetId="8" r:id="rId8"/>
+    <sheet name="kmon digit change set RFamp" sheetId="15" r:id="rId9"/>
+    <sheet name="kmon digit change set elechub" sheetId="10" r:id="rId10"/>
     <sheet name="seperate summary" sheetId="12" r:id="rId11"/>
     <sheet name="edit columns" sheetId="13" r:id="rId12"/>
     <sheet name="graph" sheetId="14" r:id="rId13"/>
@@ -32,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="310" uniqueCount="138">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="316" uniqueCount="138">
   <si>
     <t>filename</t>
   </si>
@@ -390,14 +390,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>info_test_25</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>info_test_26</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>summary 25 26 08Ch3.xlsx</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -460,6 +452,14 @@
   </si>
   <si>
     <t>Ch 4</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>info_test_01</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Usr Control</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -903,17 +903,17 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:G9"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="103" zoomScaleNormal="85" workbookViewId="0">
+    <sheetView zoomScale="103" zoomScaleNormal="85" workbookViewId="0">
       <selection activeCell="D10" sqref="D10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="11.5703125" defaultRowHeight="18"/>
+  <sheetFormatPr defaultColWidth="11.5546875" defaultRowHeight="17.25"/>
   <cols>
-    <col min="1" max="1" width="11.28515625" style="2" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="10.140625" style="2" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="9.85546875" style="2" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="8.42578125" style="2" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="6.28515625" style="2" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="11.33203125" style="2" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="10.109375" style="2" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="9.88671875" style="2" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="8.44140625" style="2" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="6.33203125" style="2" bestFit="1" customWidth="1"/>
     <col min="6" max="7" width="15" style="2" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
@@ -939,19 +939,19 @@
     </row>
     <row r="2" spans="1:6">
       <c r="A2" t="s">
-        <v>122</v>
+        <v>120</v>
       </c>
       <c r="B2" t="s">
-        <v>123</v>
+        <v>121</v>
       </c>
       <c r="C2" s="5">
         <v>300</v>
       </c>
       <c r="D2" s="5" t="s">
-        <v>134</v>
+        <v>132</v>
       </c>
       <c r="E2" s="5" t="s">
-        <v>125</v>
+        <v>123</v>
       </c>
     </row>
     <row r="3" spans="1:6">
@@ -959,16 +959,16 @@
         <v>6</v>
       </c>
       <c r="B3" t="s">
-        <v>126</v>
+        <v>124</v>
       </c>
       <c r="C3" s="5">
         <v>300</v>
       </c>
       <c r="D3" s="5" t="s">
-        <v>135</v>
+        <v>133</v>
       </c>
       <c r="E3" s="5" t="s">
-        <v>125</v>
+        <v>123</v>
       </c>
     </row>
     <row r="4" spans="1:6">
@@ -976,16 +976,16 @@
         <v>7</v>
       </c>
       <c r="B4" t="s">
-        <v>127</v>
+        <v>125</v>
       </c>
       <c r="C4" s="5">
         <v>300</v>
       </c>
       <c r="D4" s="5" t="s">
-        <v>136</v>
+        <v>134</v>
       </c>
       <c r="E4" s="5" t="s">
-        <v>125</v>
+        <v>123</v>
       </c>
     </row>
     <row r="5" spans="1:6">
@@ -993,16 +993,16 @@
         <v>8</v>
       </c>
       <c r="B5" t="s">
-        <v>128</v>
+        <v>126</v>
       </c>
       <c r="C5" s="5">
         <v>300</v>
       </c>
       <c r="D5" s="5" t="s">
-        <v>137</v>
+        <v>135</v>
       </c>
       <c r="E5" s="5" t="s">
-        <v>125</v>
+        <v>123</v>
       </c>
     </row>
     <row r="6" spans="1:6">
@@ -1010,16 +1010,16 @@
         <v>9</v>
       </c>
       <c r="B6" t="s">
-        <v>129</v>
+        <v>127</v>
       </c>
       <c r="C6" s="5">
         <v>300</v>
       </c>
       <c r="D6" s="5" t="s">
-        <v>134</v>
+        <v>132</v>
       </c>
       <c r="E6" s="5" t="s">
-        <v>125</v>
+        <v>123</v>
       </c>
     </row>
     <row r="7" spans="1:6">
@@ -1027,16 +1027,16 @@
         <v>10</v>
       </c>
       <c r="B7" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
       <c r="C7" s="5">
         <v>300</v>
       </c>
       <c r="D7" s="5" t="s">
-        <v>135</v>
+        <v>133</v>
       </c>
       <c r="E7" s="5" t="s">
-        <v>125</v>
+        <v>123</v>
       </c>
     </row>
     <row r="8" spans="1:6">
@@ -1044,16 +1044,16 @@
         <v>11</v>
       </c>
       <c r="B8" t="s">
-        <v>131</v>
+        <v>129</v>
       </c>
       <c r="C8" s="5">
         <v>300</v>
       </c>
       <c r="D8" s="5" t="s">
-        <v>136</v>
+        <v>134</v>
       </c>
       <c r="E8" s="5" t="s">
-        <v>125</v>
+        <v>123</v>
       </c>
     </row>
     <row r="9" spans="1:6">
@@ -1061,16 +1061,16 @@
         <v>12</v>
       </c>
       <c r="B9" t="s">
-        <v>132</v>
+        <v>130</v>
       </c>
       <c r="C9" s="5">
         <v>300</v>
       </c>
       <c r="D9" s="5" t="s">
-        <v>137</v>
+        <v>135</v>
       </c>
       <c r="E9" s="5" t="s">
-        <v>125</v>
+        <v>123</v>
       </c>
     </row>
   </sheetData>
@@ -1080,50 +1080,290 @@
 </file>
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0A00-000000000000}">
-  <dimension ref="A1:A9"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0900-000000000000}">
+  <dimension ref="A1:C33"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A4" sqref="A4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.7109375" defaultRowHeight="18"/>
+  <sheetFormatPr defaultColWidth="8.6640625" defaultRowHeight="17.25"/>
   <cols>
-    <col min="1" max="1" width="12" style="2" customWidth="1"/>
+    <col min="1" max="1" width="21" style="2" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:1">
+    <row r="1" spans="1:3">
       <c r="A1" s="3" t="s">
-        <v>95</v>
-      </c>
-    </row>
-    <row r="2" spans="1:1">
+        <v>86</v>
+      </c>
+      <c r="B1" s="3" t="s">
+        <v>87</v>
+      </c>
+      <c r="C1" s="3" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3">
       <c r="A2" t="s">
-        <v>118</v>
-      </c>
-    </row>
-    <row r="3" spans="1:1">
+        <v>93</v>
+      </c>
+      <c r="B2" t="s">
+        <v>54</v>
+      </c>
+      <c r="C2" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3">
       <c r="A3" t="s">
-        <v>119</v>
-      </c>
-    </row>
-    <row r="4" spans="1:1">
-      <c r="A4"/>
-    </row>
-    <row r="5" spans="1:1">
-      <c r="A5"/>
-    </row>
-    <row r="6" spans="1:1">
-      <c r="A6"/>
-    </row>
-    <row r="7" spans="1:1">
-      <c r="A7"/>
-    </row>
-    <row r="8" spans="1:1">
-      <c r="A8"/>
-    </row>
-    <row r="9" spans="1:1">
-      <c r="A9"/>
+        <v>94</v>
+      </c>
+      <c r="B3" t="s">
+        <v>56</v>
+      </c>
+      <c r="C3" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3">
+      <c r="B4" t="s">
+        <v>58</v>
+      </c>
+      <c r="C4" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3">
+      <c r="B5" t="s">
+        <v>60</v>
+      </c>
+      <c r="C5" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3">
+      <c r="B6" t="s">
+        <v>62</v>
+      </c>
+      <c r="C6" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3">
+      <c r="B7" t="s">
+        <v>64</v>
+      </c>
+      <c r="C7" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3">
+      <c r="B8" t="s">
+        <v>66</v>
+      </c>
+      <c r="C8" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3">
+      <c r="B9" t="s">
+        <v>68</v>
+      </c>
+      <c r="C9" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3">
+      <c r="B10" t="s">
+        <v>70</v>
+      </c>
+      <c r="C10" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3">
+      <c r="B11" t="s">
+        <v>72</v>
+      </c>
+      <c r="C11" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="12" spans="1:3">
+      <c r="B12" t="s">
+        <v>74</v>
+      </c>
+      <c r="C12" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="13" spans="1:3">
+      <c r="B13" t="s">
+        <v>76</v>
+      </c>
+      <c r="C13" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="14" spans="1:3">
+      <c r="B14" t="s">
+        <v>78</v>
+      </c>
+      <c r="C14" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="15" spans="1:3">
+      <c r="B15" t="s">
+        <v>80</v>
+      </c>
+      <c r="C15" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="16" spans="1:3">
+      <c r="B16" t="s">
+        <v>82</v>
+      </c>
+      <c r="C16" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="17" spans="2:3">
+      <c r="B17" t="s">
+        <v>84</v>
+      </c>
+      <c r="C17" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="18" spans="2:3">
+      <c r="B18" t="s">
+        <v>55</v>
+      </c>
+      <c r="C18" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="19" spans="2:3">
+      <c r="B19" t="s">
+        <v>57</v>
+      </c>
+      <c r="C19" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="20" spans="2:3">
+      <c r="B20" t="s">
+        <v>59</v>
+      </c>
+      <c r="C20" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="21" spans="2:3">
+      <c r="B21" t="s">
+        <v>61</v>
+      </c>
+      <c r="C21" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="22" spans="2:3">
+      <c r="B22" t="s">
+        <v>63</v>
+      </c>
+      <c r="C22" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="23" spans="2:3">
+      <c r="B23" t="s">
+        <v>65</v>
+      </c>
+      <c r="C23" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="24" spans="2:3">
+      <c r="B24" t="s">
+        <v>67</v>
+      </c>
+      <c r="C24" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="25" spans="2:3">
+      <c r="B25" t="s">
+        <v>69</v>
+      </c>
+      <c r="C25" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="26" spans="2:3">
+      <c r="B26" s="1" t="s">
+        <v>71</v>
+      </c>
+      <c r="C26" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="27" spans="2:3">
+      <c r="B27" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="C27" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="28" spans="2:3">
+      <c r="B28" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="C28" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="29" spans="2:3">
+      <c r="B29" s="1" t="s">
+        <v>77</v>
+      </c>
+      <c r="C29" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="30" spans="2:3">
+      <c r="B30" s="1" t="s">
+        <v>79</v>
+      </c>
+      <c r="C30" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="31" spans="2:3">
+      <c r="B31" s="1" t="s">
+        <v>81</v>
+      </c>
+      <c r="C31" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="32" spans="2:3">
+      <c r="B32" s="1" t="s">
+        <v>83</v>
+      </c>
+      <c r="C32" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="33" spans="2:3">
+      <c r="B33" s="1" t="s">
+        <v>85</v>
+      </c>
+      <c r="C33" t="s">
+        <v>90</v>
+      </c>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
@@ -1139,7 +1379,7 @@
       <selection activeCell="F10" sqref="F10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.7109375" defaultRowHeight="18"/>
+  <sheetFormatPr defaultColWidth="8.6640625" defaultRowHeight="17.25"/>
   <sheetData>
     <row r="1" spans="1:1">
       <c r="A1" t="s">
@@ -1175,10 +1415,10 @@
       <selection activeCell="F2" sqref="F2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.7109375" defaultRowHeight="18"/>
+  <sheetFormatPr defaultColWidth="8.6640625" defaultRowHeight="17.25"/>
   <cols>
-    <col min="1" max="1" width="22.42578125" style="2" bestFit="1" customWidth="1"/>
-    <col min="2" max="3" width="6.140625" style="2" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="22.44140625" style="2" bestFit="1" customWidth="1"/>
+    <col min="2" max="3" width="6.109375" style="2" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:3">
@@ -1214,9 +1454,9 @@
       <selection activeCell="D11" sqref="D11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.7109375" defaultRowHeight="18"/>
+  <sheetFormatPr defaultColWidth="8.6640625" defaultRowHeight="17.25"/>
   <cols>
-    <col min="1" max="1" width="28.7109375" style="2" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="28.6640625" style="2" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:6">
@@ -1290,16 +1530,16 @@
   <dimension ref="A1:G90"/>
   <sheetViews>
     <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="E9" sqref="A2:E9"/>
+      <selection activeCell="E26" sqref="E26"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="11.5703125" defaultRowHeight="18"/>
+  <sheetFormatPr defaultColWidth="11.5546875" defaultRowHeight="17.25"/>
   <cols>
-    <col min="1" max="1" width="11.42578125" style="2" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="10.7109375" style="2" customWidth="1"/>
-    <col min="3" max="3" width="6.7109375" style="2" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="7.7109375" style="2" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="14.7109375" style="2" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="11.44140625" style="2" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="10.6640625" style="2" customWidth="1"/>
+    <col min="3" max="3" width="6.6640625" style="2" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="7.6640625" style="2" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="14.6640625" style="2" bestFit="1" customWidth="1"/>
     <col min="6" max="7" width="15" style="2" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
@@ -1325,19 +1565,19 @@
     </row>
     <row r="2" spans="1:6">
       <c r="A2" t="s">
-        <v>122</v>
+        <v>120</v>
       </c>
       <c r="B2" t="s">
-        <v>123</v>
+        <v>121</v>
       </c>
       <c r="C2" s="5">
         <v>300</v>
       </c>
       <c r="D2" s="5" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
       <c r="E2" s="5" t="s">
-        <v>125</v>
+        <v>123</v>
       </c>
     </row>
     <row r="3" spans="1:6">
@@ -1345,16 +1585,16 @@
         <v>6</v>
       </c>
       <c r="B3" t="s">
-        <v>126</v>
+        <v>124</v>
       </c>
       <c r="C3" s="5">
         <v>300</v>
       </c>
       <c r="D3" s="5" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
       <c r="E3" s="5" t="s">
-        <v>125</v>
+        <v>123</v>
       </c>
     </row>
     <row r="4" spans="1:6">
@@ -1362,7 +1602,7 @@
         <v>7</v>
       </c>
       <c r="B4" t="s">
-        <v>127</v>
+        <v>125</v>
       </c>
       <c r="C4" s="5">
         <v>300</v>
@@ -1371,7 +1611,7 @@
         <v>117</v>
       </c>
       <c r="E4" s="5" t="s">
-        <v>125</v>
+        <v>123</v>
       </c>
     </row>
     <row r="5" spans="1:6">
@@ -1379,7 +1619,7 @@
         <v>8</v>
       </c>
       <c r="B5" t="s">
-        <v>128</v>
+        <v>126</v>
       </c>
       <c r="C5" s="5">
         <v>300</v>
@@ -1388,7 +1628,7 @@
         <v>116</v>
       </c>
       <c r="E5" s="5" t="s">
-        <v>125</v>
+        <v>123</v>
       </c>
     </row>
     <row r="6" spans="1:6">
@@ -1396,16 +1636,16 @@
         <v>9</v>
       </c>
       <c r="B6" t="s">
-        <v>129</v>
+        <v>127</v>
       </c>
       <c r="C6" s="5">
         <v>300</v>
       </c>
       <c r="D6" s="5" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
       <c r="E6" s="5" t="s">
-        <v>125</v>
+        <v>123</v>
       </c>
     </row>
     <row r="7" spans="1:6">
@@ -1413,16 +1653,16 @@
         <v>10</v>
       </c>
       <c r="B7" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
       <c r="C7" s="5">
         <v>300</v>
       </c>
       <c r="D7" s="5" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
       <c r="E7" s="5" t="s">
-        <v>125</v>
+        <v>123</v>
       </c>
     </row>
     <row r="8" spans="1:6">
@@ -1430,7 +1670,7 @@
         <v>11</v>
       </c>
       <c r="B8" t="s">
-        <v>131</v>
+        <v>129</v>
       </c>
       <c r="C8" s="5">
         <v>300</v>
@@ -1439,7 +1679,7 @@
         <v>117</v>
       </c>
       <c r="E8" s="5" t="s">
-        <v>125</v>
+        <v>123</v>
       </c>
     </row>
     <row r="9" spans="1:6">
@@ -1447,7 +1687,7 @@
         <v>12</v>
       </c>
       <c r="B9" t="s">
-        <v>132</v>
+        <v>130</v>
       </c>
       <c r="C9" s="5">
         <v>300</v>
@@ -1456,7 +1696,7 @@
         <v>116</v>
       </c>
       <c r="E9" s="5" t="s">
-        <v>125</v>
+        <v>123</v>
       </c>
     </row>
     <row r="10" spans="1:6">
@@ -2033,91 +2273,61 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
-  <dimension ref="A1:A15"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0A00-000000000000}">
+  <dimension ref="A1:A9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B12" sqref="B12"/>
+      <selection activeCell="D12" sqref="D12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.7109375" defaultRowHeight="18"/>
+  <sheetFormatPr defaultColWidth="8.6640625" defaultRowHeight="17.25"/>
   <cols>
-    <col min="1" max="1" width="21.7109375" style="2" customWidth="1"/>
+    <col min="1" max="1" width="12" style="2" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:1">
       <c r="A1" s="3" t="s">
-        <v>13</v>
+        <v>95</v>
       </c>
     </row>
     <row r="2" spans="1:1">
       <c r="A2" t="s">
-        <v>14</v>
+        <v>120</v>
       </c>
     </row>
     <row r="3" spans="1:1">
       <c r="A3" t="s">
-        <v>15</v>
+        <v>136</v>
       </c>
     </row>
     <row r="4" spans="1:1">
       <c r="A4" t="s">
-        <v>16</v>
+        <v>7</v>
       </c>
     </row>
     <row r="5" spans="1:1">
       <c r="A5" t="s">
-        <v>17</v>
+        <v>8</v>
       </c>
     </row>
     <row r="6" spans="1:1">
       <c r="A6" t="s">
-        <v>18</v>
+        <v>9</v>
       </c>
     </row>
     <row r="7" spans="1:1">
       <c r="A7" t="s">
-        <v>19</v>
+        <v>10</v>
       </c>
     </row>
     <row r="8" spans="1:1">
       <c r="A8" t="s">
-        <v>20</v>
+        <v>11</v>
       </c>
     </row>
     <row r="9" spans="1:1">
       <c r="A9" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="10" spans="1:1">
-      <c r="A10" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="11" spans="1:1">
-      <c r="A11" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="12" spans="1:1">
-      <c r="A12" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="13" spans="1:1">
-      <c r="A13" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="14" spans="1:1">
-      <c r="A14" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="15" spans="1:1">
-      <c r="A15" s="1" t="s">
-        <v>27</v>
+        <v>12</v>
       </c>
     </row>
   </sheetData>
@@ -2127,6 +2337,100 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
+  <dimension ref="A1:A15"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B7" sqref="B7"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="8.6640625" defaultRowHeight="17.25"/>
+  <cols>
+    <col min="1" max="1" width="21.6640625" style="2" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:1">
+      <c r="A1" s="3" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="2" spans="1:1">
+      <c r="A2" t="s">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="3" spans="1:1">
+      <c r="A3" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="4" spans="1:1">
+      <c r="A4" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="5" spans="1:1">
+      <c r="A5" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="6" spans="1:1">
+      <c r="A6" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="7" spans="1:1">
+      <c r="A7" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="8" spans="1:1">
+      <c r="A8" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="9" spans="1:1">
+      <c r="A9" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="10" spans="1:1">
+      <c r="A10" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="11" spans="1:1">
+      <c r="A11" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="12" spans="1:1">
+      <c r="A12" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="13" spans="1:1">
+      <c r="A13" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="14" spans="1:1">
+      <c r="A14" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="15" spans="1:1">
+      <c r="A15" s="1" t="s">
+        <v>27</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
   <dimension ref="A1:B17"/>
   <sheetViews>
@@ -2134,10 +2438,10 @@
       <selection activeCell="B15" sqref="B15"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.7109375" defaultRowHeight="18"/>
+  <sheetFormatPr defaultColWidth="8.6640625" defaultRowHeight="17.25"/>
   <cols>
     <col min="1" max="1" width="19" style="2" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="20.28515625" style="2" customWidth="1"/>
+    <col min="2" max="2" width="20.33203125" style="2" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:2">
@@ -2272,7 +2576,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0500-000000000000}">
   <dimension ref="A1:G16"/>
   <sheetViews>
@@ -2280,11 +2584,11 @@
       <selection activeCell="F33" sqref="F33"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.7109375" defaultRowHeight="18"/>
+  <sheetFormatPr defaultColWidth="8.6640625" defaultRowHeight="17.25"/>
   <cols>
     <col min="1" max="1" width="19" style="2" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="20.28515625" style="2" customWidth="1"/>
-    <col min="7" max="7" width="10.7109375" style="2" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="20.33203125" style="2" customWidth="1"/>
+    <col min="7" max="7" width="10.6640625" style="2" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:2">
@@ -2376,7 +2680,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0600-000000000000}">
   <dimension ref="A1:B17"/>
   <sheetViews>
@@ -2384,10 +2688,10 @@
       <selection activeCell="B25" sqref="B25"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.7109375" defaultRowHeight="18"/>
+  <sheetFormatPr defaultColWidth="8.6640625" defaultRowHeight="17.25"/>
   <cols>
     <col min="1" max="1" width="19" style="2" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="20.28515625" style="2" customWidth="1"/>
+    <col min="2" max="2" width="20.33203125" style="2" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:2">
@@ -2532,7 +2836,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0700-000000000000}">
   <dimension ref="A1:C33"/>
   <sheetViews>
@@ -2540,10 +2844,10 @@
       <selection activeCell="C26" sqref="C26"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.7109375" defaultRowHeight="18"/>
+  <sheetFormatPr defaultColWidth="8.6640625" defaultRowHeight="17.25"/>
   <cols>
     <col min="1" max="1" width="21" style="2" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="16.140625" style="2" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="16.109375" style="2" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:3">
@@ -2665,7 +2969,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0E00-000000000000}">
   <dimension ref="A1:C9"/>
   <sheetViews>
@@ -2673,11 +2977,11 @@
       <selection activeCell="B4" sqref="B4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.7109375" defaultRowHeight="18"/>
+  <sheetFormatPr defaultColWidth="8.6640625" defaultRowHeight="17.25"/>
   <cols>
-    <col min="1" max="1" width="24.42578125" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="12.7109375" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="8.5703125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="24.44140625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="12.6640625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="8.5546875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:3">
@@ -2693,7 +2997,7 @@
     </row>
     <row r="2" spans="1:3">
       <c r="A2" t="s">
-        <v>120</v>
+        <v>118</v>
       </c>
       <c r="B2" t="s">
         <v>30</v>
@@ -2704,7 +3008,7 @@
     </row>
     <row r="3" spans="1:3">
       <c r="A3" t="s">
-        <v>121</v>
+        <v>119</v>
       </c>
       <c r="B3" t="s">
         <v>32</v>
@@ -2765,296 +3069,4 @@
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
-</file>
-
-<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0900-000000000000}">
-  <dimension ref="A1:C33"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A4" sqref="A4"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.7109375" defaultRowHeight="18"/>
-  <cols>
-    <col min="1" max="1" width="21" style="2" bestFit="1" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:3">
-      <c r="A1" s="3" t="s">
-        <v>86</v>
-      </c>
-      <c r="B1" s="3" t="s">
-        <v>87</v>
-      </c>
-      <c r="C1" s="3" t="s">
-        <v>88</v>
-      </c>
-    </row>
-    <row r="2" spans="1:3">
-      <c r="A2" t="s">
-        <v>93</v>
-      </c>
-      <c r="B2" t="s">
-        <v>54</v>
-      </c>
-      <c r="C2" t="s">
-        <v>90</v>
-      </c>
-    </row>
-    <row r="3" spans="1:3">
-      <c r="A3" t="s">
-        <v>94</v>
-      </c>
-      <c r="B3" t="s">
-        <v>56</v>
-      </c>
-      <c r="C3" t="s">
-        <v>90</v>
-      </c>
-    </row>
-    <row r="4" spans="1:3">
-      <c r="B4" t="s">
-        <v>58</v>
-      </c>
-      <c r="C4" t="s">
-        <v>90</v>
-      </c>
-    </row>
-    <row r="5" spans="1:3">
-      <c r="B5" t="s">
-        <v>60</v>
-      </c>
-      <c r="C5" t="s">
-        <v>90</v>
-      </c>
-    </row>
-    <row r="6" spans="1:3">
-      <c r="B6" t="s">
-        <v>62</v>
-      </c>
-      <c r="C6" t="s">
-        <v>90</v>
-      </c>
-    </row>
-    <row r="7" spans="1:3">
-      <c r="B7" t="s">
-        <v>64</v>
-      </c>
-      <c r="C7" t="s">
-        <v>90</v>
-      </c>
-    </row>
-    <row r="8" spans="1:3">
-      <c r="B8" t="s">
-        <v>66</v>
-      </c>
-      <c r="C8" t="s">
-        <v>90</v>
-      </c>
-    </row>
-    <row r="9" spans="1:3">
-      <c r="B9" t="s">
-        <v>68</v>
-      </c>
-      <c r="C9" t="s">
-        <v>90</v>
-      </c>
-    </row>
-    <row r="10" spans="1:3">
-      <c r="B10" t="s">
-        <v>70</v>
-      </c>
-      <c r="C10" t="s">
-        <v>90</v>
-      </c>
-    </row>
-    <row r="11" spans="1:3">
-      <c r="B11" t="s">
-        <v>72</v>
-      </c>
-      <c r="C11" t="s">
-        <v>90</v>
-      </c>
-    </row>
-    <row r="12" spans="1:3">
-      <c r="B12" t="s">
-        <v>74</v>
-      </c>
-      <c r="C12" t="s">
-        <v>90</v>
-      </c>
-    </row>
-    <row r="13" spans="1:3">
-      <c r="B13" t="s">
-        <v>76</v>
-      </c>
-      <c r="C13" t="s">
-        <v>90</v>
-      </c>
-    </row>
-    <row r="14" spans="1:3">
-      <c r="B14" t="s">
-        <v>78</v>
-      </c>
-      <c r="C14" t="s">
-        <v>90</v>
-      </c>
-    </row>
-    <row r="15" spans="1:3">
-      <c r="B15" t="s">
-        <v>80</v>
-      </c>
-      <c r="C15" t="s">
-        <v>90</v>
-      </c>
-    </row>
-    <row r="16" spans="1:3">
-      <c r="B16" t="s">
-        <v>82</v>
-      </c>
-      <c r="C16" t="s">
-        <v>90</v>
-      </c>
-    </row>
-    <row r="17" spans="2:3">
-      <c r="B17" t="s">
-        <v>84</v>
-      </c>
-      <c r="C17" t="s">
-        <v>90</v>
-      </c>
-    </row>
-    <row r="18" spans="2:3">
-      <c r="B18" t="s">
-        <v>55</v>
-      </c>
-      <c r="C18" t="s">
-        <v>90</v>
-      </c>
-    </row>
-    <row r="19" spans="2:3">
-      <c r="B19" t="s">
-        <v>57</v>
-      </c>
-      <c r="C19" t="s">
-        <v>90</v>
-      </c>
-    </row>
-    <row r="20" spans="2:3">
-      <c r="B20" t="s">
-        <v>59</v>
-      </c>
-      <c r="C20" t="s">
-        <v>90</v>
-      </c>
-    </row>
-    <row r="21" spans="2:3">
-      <c r="B21" t="s">
-        <v>61</v>
-      </c>
-      <c r="C21" t="s">
-        <v>90</v>
-      </c>
-    </row>
-    <row r="22" spans="2:3">
-      <c r="B22" t="s">
-        <v>63</v>
-      </c>
-      <c r="C22" t="s">
-        <v>90</v>
-      </c>
-    </row>
-    <row r="23" spans="2:3">
-      <c r="B23" t="s">
-        <v>65</v>
-      </c>
-      <c r="C23" t="s">
-        <v>90</v>
-      </c>
-    </row>
-    <row r="24" spans="2:3">
-      <c r="B24" t="s">
-        <v>67</v>
-      </c>
-      <c r="C24" t="s">
-        <v>90</v>
-      </c>
-    </row>
-    <row r="25" spans="2:3">
-      <c r="B25" t="s">
-        <v>69</v>
-      </c>
-      <c r="C25" t="s">
-        <v>90</v>
-      </c>
-    </row>
-    <row r="26" spans="2:3">
-      <c r="B26" s="1" t="s">
-        <v>71</v>
-      </c>
-      <c r="C26" t="s">
-        <v>90</v>
-      </c>
-    </row>
-    <row r="27" spans="2:3">
-      <c r="B27" s="1" t="s">
-        <v>73</v>
-      </c>
-      <c r="C27" t="s">
-        <v>90</v>
-      </c>
-    </row>
-    <row r="28" spans="2:3">
-      <c r="B28" s="1" t="s">
-        <v>75</v>
-      </c>
-      <c r="C28" t="s">
-        <v>90</v>
-      </c>
-    </row>
-    <row r="29" spans="2:3">
-      <c r="B29" s="1" t="s">
-        <v>77</v>
-      </c>
-      <c r="C29" t="s">
-        <v>90</v>
-      </c>
-    </row>
-    <row r="30" spans="2:3">
-      <c r="B30" s="1" t="s">
-        <v>79</v>
-      </c>
-      <c r="C30" t="s">
-        <v>90</v>
-      </c>
-    </row>
-    <row r="31" spans="2:3">
-      <c r="B31" s="1" t="s">
-        <v>81</v>
-      </c>
-      <c r="C31" t="s">
-        <v>90</v>
-      </c>
-    </row>
-    <row r="32" spans="2:3">
-      <c r="B32" s="1" t="s">
-        <v>83</v>
-      </c>
-      <c r="C32" t="s">
-        <v>90</v>
-      </c>
-    </row>
-    <row r="33" spans="2:3">
-      <c r="B33" s="1" t="s">
-        <v>85</v>
-      </c>
-      <c r="C33" t="s">
-        <v>90</v>
-      </c>
-    </row>
-  </sheetData>
-  <phoneticPr fontId="1" type="noConversion"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
 </file>
--- a/data/eval_control.xlsx
+++ b/data/eval_control.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\winston\workspace\PyCharm\sinewave_analyze\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F675F5E2-4132-4A78-B3F1-58A2975A462D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1E7BB75A-1AF6-41BF-B3F2-B147419BCF2D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="57840" yWindow="-20850" windowWidth="29040" windowHeight="15840" tabRatio="846" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="240" yWindow="-32520" windowWidth="57840" windowHeight="32040" tabRatio="846" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="file name" sheetId="1" r:id="rId1"/>
@@ -32,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="316" uniqueCount="138">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="292" uniqueCount="130">
   <si>
     <t>filename</t>
   </si>
@@ -380,14 +380,6 @@
   </si>
   <si>
     <t>E</t>
-  </si>
-  <si>
-    <t>Ch4</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Ch3</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>summary 25 26 08Ch3.xlsx</t>
@@ -402,43 +394,10 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>RFAMP_00</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Ch1</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>PWM</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>RFAMP_01</t>
-  </si>
-  <si>
-    <t>RFAMP_02</t>
-  </si>
-  <si>
-    <t>RFAMP_03</t>
-  </si>
-  <si>
-    <t>RFAMP_04</t>
-  </si>
-  <si>
-    <t>RFAMP_05</t>
-  </si>
-  <si>
-    <t>RFAMP_06</t>
-  </si>
-  <si>
-    <t>RFAMP_07</t>
-  </si>
-  <si>
-    <t>Ch2</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>Ch 1</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -460,6 +419,22 @@
   </si>
   <si>
     <t>Usr Control</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>RFAMP_01</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>RFAMP_02</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>info_test_08</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>RFAMP_03</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -903,8 +878,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:G9"/>
   <sheetViews>
-    <sheetView zoomScale="103" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="D10" sqref="D10"/>
+    <sheetView tabSelected="1" zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
+      <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.5546875" defaultRowHeight="17.25"/>
@@ -939,139 +914,69 @@
     </row>
     <row r="2" spans="1:6">
       <c r="A2" t="s">
-        <v>120</v>
+        <v>128</v>
       </c>
       <c r="B2" t="s">
-        <v>121</v>
+        <v>129</v>
       </c>
       <c r="C2" s="5">
         <v>300</v>
       </c>
       <c r="D2" s="5" t="s">
-        <v>132</v>
+        <v>120</v>
       </c>
       <c r="E2" s="5" t="s">
-        <v>123</v>
+        <v>119</v>
       </c>
     </row>
     <row r="3" spans="1:6">
-      <c r="A3" t="s">
-        <v>6</v>
-      </c>
-      <c r="B3" t="s">
-        <v>124</v>
-      </c>
-      <c r="C3" s="5">
-        <v>300</v>
-      </c>
-      <c r="D3" s="5" t="s">
-        <v>133</v>
-      </c>
-      <c r="E3" s="5" t="s">
-        <v>123</v>
-      </c>
+      <c r="A3"/>
+      <c r="B3"/>
+      <c r="C3" s="5"/>
+      <c r="D3" s="5"/>
+      <c r="E3" s="5"/>
     </row>
     <row r="4" spans="1:6">
-      <c r="A4" t="s">
-        <v>7</v>
-      </c>
-      <c r="B4" t="s">
-        <v>125</v>
-      </c>
-      <c r="C4" s="5">
-        <v>300</v>
-      </c>
-      <c r="D4" s="5" t="s">
-        <v>134</v>
-      </c>
-      <c r="E4" s="5" t="s">
-        <v>123</v>
-      </c>
+      <c r="A4"/>
+      <c r="B4"/>
+      <c r="C4" s="5"/>
+      <c r="D4" s="5"/>
+      <c r="E4" s="5"/>
     </row>
     <row r="5" spans="1:6">
-      <c r="A5" t="s">
-        <v>8</v>
-      </c>
-      <c r="B5" t="s">
-        <v>126</v>
-      </c>
-      <c r="C5" s="5">
-        <v>300</v>
-      </c>
-      <c r="D5" s="5" t="s">
-        <v>135</v>
-      </c>
-      <c r="E5" s="5" t="s">
-        <v>123</v>
-      </c>
+      <c r="A5"/>
+      <c r="B5"/>
+      <c r="C5" s="5"/>
+      <c r="D5" s="5"/>
+      <c r="E5" s="5"/>
     </row>
     <row r="6" spans="1:6">
-      <c r="A6" t="s">
-        <v>9</v>
-      </c>
-      <c r="B6" t="s">
-        <v>127</v>
-      </c>
-      <c r="C6" s="5">
-        <v>300</v>
-      </c>
-      <c r="D6" s="5" t="s">
-        <v>132</v>
-      </c>
-      <c r="E6" s="5" t="s">
-        <v>123</v>
-      </c>
+      <c r="A6"/>
+      <c r="B6"/>
+      <c r="C6" s="5"/>
+      <c r="D6" s="5"/>
+      <c r="E6" s="5"/>
     </row>
     <row r="7" spans="1:6">
-      <c r="A7" t="s">
-        <v>10</v>
-      </c>
-      <c r="B7" t="s">
-        <v>128</v>
-      </c>
-      <c r="C7" s="5">
-        <v>300</v>
-      </c>
-      <c r="D7" s="5" t="s">
-        <v>133</v>
-      </c>
-      <c r="E7" s="5" t="s">
-        <v>123</v>
-      </c>
+      <c r="A7"/>
+      <c r="B7"/>
+      <c r="C7" s="5"/>
+      <c r="D7" s="5"/>
+      <c r="E7" s="5"/>
     </row>
     <row r="8" spans="1:6">
-      <c r="A8" t="s">
-        <v>11</v>
-      </c>
-      <c r="B8" t="s">
-        <v>129</v>
-      </c>
-      <c r="C8" s="5">
-        <v>300</v>
-      </c>
-      <c r="D8" s="5" t="s">
-        <v>134</v>
-      </c>
-      <c r="E8" s="5" t="s">
-        <v>123</v>
-      </c>
+      <c r="A8"/>
+      <c r="B8"/>
+      <c r="C8" s="5"/>
+      <c r="D8" s="5"/>
+      <c r="E8" s="5"/>
     </row>
     <row r="9" spans="1:6">
-      <c r="A9" t="s">
-        <v>12</v>
-      </c>
-      <c r="B9" t="s">
-        <v>130</v>
-      </c>
-      <c r="C9" s="5">
-        <v>300</v>
-      </c>
-      <c r="D9" s="5" t="s">
-        <v>135</v>
-      </c>
-      <c r="E9" s="5" t="s">
-        <v>123</v>
-      </c>
+      <c r="A9"/>
+      <c r="B9"/>
+      <c r="C9" s="5"/>
+      <c r="D9" s="5"/>
+      <c r="E9" s="5"/>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
@@ -1530,7 +1435,7 @@
   <dimension ref="A1:G90"/>
   <sheetViews>
     <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="E26" sqref="E26"/>
+      <selection activeCell="E79" sqref="D79:E79"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.5546875" defaultRowHeight="17.25"/>
@@ -1565,19 +1470,19 @@
     </row>
     <row r="2" spans="1:6">
       <c r="A2" t="s">
-        <v>120</v>
+        <v>118</v>
       </c>
       <c r="B2" t="s">
-        <v>121</v>
+        <v>126</v>
       </c>
       <c r="C2" s="5">
         <v>300</v>
       </c>
       <c r="D2" s="5" t="s">
-        <v>122</v>
+        <v>120</v>
       </c>
       <c r="E2" s="5" t="s">
-        <v>123</v>
+        <v>119</v>
       </c>
     </row>
     <row r="3" spans="1:6">
@@ -1585,16 +1490,16 @@
         <v>6</v>
       </c>
       <c r="B3" t="s">
-        <v>124</v>
+        <v>126</v>
       </c>
       <c r="C3" s="5">
         <v>300</v>
       </c>
       <c r="D3" s="5" t="s">
-        <v>131</v>
+        <v>121</v>
       </c>
       <c r="E3" s="5" t="s">
-        <v>123</v>
+        <v>119</v>
       </c>
     </row>
     <row r="4" spans="1:6">
@@ -1602,16 +1507,16 @@
         <v>7</v>
       </c>
       <c r="B4" t="s">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="C4" s="5">
         <v>300</v>
       </c>
       <c r="D4" s="5" t="s">
-        <v>117</v>
+        <v>122</v>
       </c>
       <c r="E4" s="5" t="s">
-        <v>123</v>
+        <v>119</v>
       </c>
     </row>
     <row r="5" spans="1:6">
@@ -1625,10 +1530,10 @@
         <v>300</v>
       </c>
       <c r="D5" s="5" t="s">
-        <v>116</v>
+        <v>123</v>
       </c>
       <c r="E5" s="5" t="s">
-        <v>123</v>
+        <v>119</v>
       </c>
     </row>
     <row r="6" spans="1:6">
@@ -1642,10 +1547,10 @@
         <v>300</v>
       </c>
       <c r="D6" s="5" t="s">
-        <v>122</v>
+        <v>120</v>
       </c>
       <c r="E6" s="5" t="s">
-        <v>123</v>
+        <v>119</v>
       </c>
     </row>
     <row r="7" spans="1:6">
@@ -1653,16 +1558,16 @@
         <v>10</v>
       </c>
       <c r="B7" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="C7" s="5">
         <v>300</v>
       </c>
       <c r="D7" s="5" t="s">
-        <v>131</v>
+        <v>121</v>
       </c>
       <c r="E7" s="5" t="s">
-        <v>123</v>
+        <v>119</v>
       </c>
     </row>
     <row r="8" spans="1:6">
@@ -1670,16 +1575,16 @@
         <v>11</v>
       </c>
       <c r="B8" t="s">
-        <v>129</v>
+        <v>127</v>
       </c>
       <c r="C8" s="5">
         <v>300</v>
       </c>
       <c r="D8" s="5" t="s">
-        <v>117</v>
+        <v>122</v>
       </c>
       <c r="E8" s="5" t="s">
-        <v>123</v>
+        <v>119</v>
       </c>
     </row>
     <row r="9" spans="1:6">
@@ -1687,24 +1592,34 @@
         <v>12</v>
       </c>
       <c r="B9" t="s">
-        <v>130</v>
+        <v>127</v>
       </c>
       <c r="C9" s="5">
         <v>300</v>
       </c>
       <c r="D9" s="5" t="s">
-        <v>116</v>
+        <v>123</v>
       </c>
       <c r="E9" s="5" t="s">
-        <v>123</v>
+        <v>119</v>
       </c>
     </row>
     <row r="10" spans="1:6">
-      <c r="A10"/>
-      <c r="B10"/>
-      <c r="C10" s="5"/>
-      <c r="D10" s="5"/>
-      <c r="E10" s="5"/>
+      <c r="A10" t="s">
+        <v>128</v>
+      </c>
+      <c r="B10" t="s">
+        <v>129</v>
+      </c>
+      <c r="C10" s="5">
+        <v>300</v>
+      </c>
+      <c r="D10" s="5" t="s">
+        <v>120</v>
+      </c>
+      <c r="E10" s="5" t="s">
+        <v>119</v>
+      </c>
     </row>
     <row r="11" spans="1:6">
       <c r="A11"/>
@@ -2292,12 +2207,12 @@
     </row>
     <row r="2" spans="1:1">
       <c r="A2" t="s">
-        <v>120</v>
+        <v>118</v>
       </c>
     </row>
     <row r="3" spans="1:1">
       <c r="A3" t="s">
-        <v>136</v>
+        <v>124</v>
       </c>
     </row>
     <row r="4" spans="1:1">
@@ -2340,7 +2255,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <dimension ref="A1:A15"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="B7" sqref="B7"/>
     </sheetView>
   </sheetViews>
@@ -2356,7 +2271,7 @@
     </row>
     <row r="2" spans="1:1">
       <c r="A2" t="s">
-        <v>137</v>
+        <v>125</v>
       </c>
     </row>
     <row r="3" spans="1:1">
@@ -2997,7 +2912,7 @@
     </row>
     <row r="2" spans="1:3">
       <c r="A2" t="s">
-        <v>118</v>
+        <v>116</v>
       </c>
       <c r="B2" t="s">
         <v>30</v>
@@ -3008,7 +2923,7 @@
     </row>
     <row r="3" spans="1:3">
       <c r="A3" t="s">
-        <v>119</v>
+        <v>117</v>
       </c>
       <c r="B3" t="s">
         <v>32</v>

--- a/data/eval_control.xlsx
+++ b/data/eval_control.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26327"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26501"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\winston\workspace\PyCharm\sinewave_analyze\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1E7BB75A-1AF6-41BF-B3F2-B147419BCF2D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{724ED74C-0529-4CCA-99A7-72F3C3943F5A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="240" yWindow="-32520" windowWidth="57840" windowHeight="32040" tabRatio="846" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -32,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="292" uniqueCount="130">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="348" uniqueCount="133">
   <si>
     <t>filename</t>
   </si>
@@ -436,6 +436,15 @@
   <si>
     <t>RFAMP_03</t>
     <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>info_test_09</t>
+  </si>
+  <si>
+    <t>info_test_10</t>
+  </si>
+  <si>
+    <t>info_test_11</t>
   </si>
 </sst>
 </file>
@@ -876,10 +885,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:G9"/>
+  <dimension ref="A1:G13"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
+      <selection activeCell="H20" sqref="H20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.5546875" defaultRowHeight="17.25"/>
@@ -914,10 +923,10 @@
     </row>
     <row r="2" spans="1:6">
       <c r="A2" t="s">
-        <v>128</v>
+        <v>118</v>
       </c>
       <c r="B2" t="s">
-        <v>129</v>
+        <v>126</v>
       </c>
       <c r="C2" s="5">
         <v>300</v>
@@ -930,53 +939,191 @@
       </c>
     </row>
     <row r="3" spans="1:6">
-      <c r="A3"/>
-      <c r="B3"/>
-      <c r="C3" s="5"/>
-      <c r="D3" s="5"/>
-      <c r="E3" s="5"/>
+      <c r="A3" t="s">
+        <v>6</v>
+      </c>
+      <c r="B3" t="s">
+        <v>126</v>
+      </c>
+      <c r="C3" s="5">
+        <v>300</v>
+      </c>
+      <c r="D3" s="5" t="s">
+        <v>121</v>
+      </c>
+      <c r="E3" s="5" t="s">
+        <v>119</v>
+      </c>
     </row>
     <row r="4" spans="1:6">
-      <c r="A4"/>
-      <c r="B4"/>
-      <c r="C4" s="5"/>
-      <c r="D4" s="5"/>
-      <c r="E4" s="5"/>
+      <c r="A4" t="s">
+        <v>7</v>
+      </c>
+      <c r="B4" t="s">
+        <v>126</v>
+      </c>
+      <c r="C4" s="5">
+        <v>300</v>
+      </c>
+      <c r="D4" s="5" t="s">
+        <v>122</v>
+      </c>
+      <c r="E4" s="5" t="s">
+        <v>119</v>
+      </c>
     </row>
     <row r="5" spans="1:6">
-      <c r="A5"/>
-      <c r="B5"/>
-      <c r="C5" s="5"/>
-      <c r="D5" s="5"/>
-      <c r="E5" s="5"/>
+      <c r="A5" t="s">
+        <v>8</v>
+      </c>
+      <c r="B5" t="s">
+        <v>126</v>
+      </c>
+      <c r="C5" s="5">
+        <v>300</v>
+      </c>
+      <c r="D5" s="5" t="s">
+        <v>123</v>
+      </c>
+      <c r="E5" s="5" t="s">
+        <v>119</v>
+      </c>
     </row>
     <row r="6" spans="1:6">
-      <c r="A6"/>
-      <c r="B6"/>
-      <c r="C6" s="5"/>
-      <c r="D6" s="5"/>
-      <c r="E6" s="5"/>
+      <c r="A6" t="s">
+        <v>9</v>
+      </c>
+      <c r="B6" t="s">
+        <v>127</v>
+      </c>
+      <c r="C6" s="5">
+        <v>300</v>
+      </c>
+      <c r="D6" s="5" t="s">
+        <v>120</v>
+      </c>
+      <c r="E6" s="5" t="s">
+        <v>119</v>
+      </c>
     </row>
     <row r="7" spans="1:6">
-      <c r="A7"/>
-      <c r="B7"/>
-      <c r="C7" s="5"/>
-      <c r="D7" s="5"/>
-      <c r="E7" s="5"/>
+      <c r="A7" t="s">
+        <v>10</v>
+      </c>
+      <c r="B7" t="s">
+        <v>127</v>
+      </c>
+      <c r="C7" s="5">
+        <v>300</v>
+      </c>
+      <c r="D7" s="5" t="s">
+        <v>121</v>
+      </c>
+      <c r="E7" s="5" t="s">
+        <v>119</v>
+      </c>
     </row>
     <row r="8" spans="1:6">
-      <c r="A8"/>
-      <c r="B8"/>
-      <c r="C8" s="5"/>
-      <c r="D8" s="5"/>
-      <c r="E8" s="5"/>
+      <c r="A8" t="s">
+        <v>11</v>
+      </c>
+      <c r="B8" t="s">
+        <v>127</v>
+      </c>
+      <c r="C8" s="5">
+        <v>300</v>
+      </c>
+      <c r="D8" s="5" t="s">
+        <v>122</v>
+      </c>
+      <c r="E8" s="5" t="s">
+        <v>119</v>
+      </c>
     </row>
     <row r="9" spans="1:6">
-      <c r="A9"/>
-      <c r="B9"/>
-      <c r="C9" s="5"/>
-      <c r="D9" s="5"/>
-      <c r="E9" s="5"/>
+      <c r="A9" t="s">
+        <v>12</v>
+      </c>
+      <c r="B9" t="s">
+        <v>127</v>
+      </c>
+      <c r="C9" s="5">
+        <v>300</v>
+      </c>
+      <c r="D9" s="5" t="s">
+        <v>123</v>
+      </c>
+      <c r="E9" s="5" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6">
+      <c r="A10" t="s">
+        <v>128</v>
+      </c>
+      <c r="B10" t="s">
+        <v>129</v>
+      </c>
+      <c r="C10" s="5">
+        <v>300</v>
+      </c>
+      <c r="D10" s="5" t="s">
+        <v>120</v>
+      </c>
+      <c r="E10" s="5" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6">
+      <c r="A11" t="s">
+        <v>130</v>
+      </c>
+      <c r="B11" t="s">
+        <v>129</v>
+      </c>
+      <c r="C11" s="5">
+        <v>300</v>
+      </c>
+      <c r="D11" s="5" t="s">
+        <v>121</v>
+      </c>
+      <c r="E11" s="5" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6">
+      <c r="A12" t="s">
+        <v>131</v>
+      </c>
+      <c r="B12" t="s">
+        <v>129</v>
+      </c>
+      <c r="C12" s="5">
+        <v>300</v>
+      </c>
+      <c r="D12" s="5" t="s">
+        <v>122</v>
+      </c>
+      <c r="E12" s="5" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="13" spans="1:6">
+      <c r="A13" t="s">
+        <v>132</v>
+      </c>
+      <c r="B13" t="s">
+        <v>129</v>
+      </c>
+      <c r="C13" s="5">
+        <v>300</v>
+      </c>
+      <c r="D13" s="5" t="s">
+        <v>123</v>
+      </c>
+      <c r="E13" s="5" t="s">
+        <v>119</v>
+      </c>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
@@ -1434,8 +1581,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:G90"/>
   <sheetViews>
-    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="E79" sqref="D79:E79"/>
+    <sheetView zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
+      <selection activeCell="A13" sqref="A2:E13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.5546875" defaultRowHeight="17.25"/>
@@ -1622,25 +1769,55 @@
       </c>
     </row>
     <row r="11" spans="1:6">
-      <c r="A11"/>
-      <c r="B11"/>
-      <c r="C11" s="5"/>
-      <c r="D11" s="5"/>
-      <c r="E11" s="5"/>
+      <c r="A11" t="s">
+        <v>130</v>
+      </c>
+      <c r="B11" t="s">
+        <v>129</v>
+      </c>
+      <c r="C11" s="5">
+        <v>300</v>
+      </c>
+      <c r="D11" s="5" t="s">
+        <v>121</v>
+      </c>
+      <c r="E11" s="5" t="s">
+        <v>119</v>
+      </c>
     </row>
     <row r="12" spans="1:6">
-      <c r="A12"/>
-      <c r="B12"/>
-      <c r="C12" s="5"/>
-      <c r="D12" s="5"/>
-      <c r="E12" s="5"/>
+      <c r="A12" t="s">
+        <v>131</v>
+      </c>
+      <c r="B12" t="s">
+        <v>129</v>
+      </c>
+      <c r="C12" s="5">
+        <v>300</v>
+      </c>
+      <c r="D12" s="5" t="s">
+        <v>122</v>
+      </c>
+      <c r="E12" s="5" t="s">
+        <v>119</v>
+      </c>
     </row>
     <row r="13" spans="1:6">
-      <c r="A13"/>
-      <c r="B13"/>
-      <c r="C13" s="5"/>
-      <c r="D13" s="5"/>
-      <c r="E13" s="5"/>
+      <c r="A13" t="s">
+        <v>132</v>
+      </c>
+      <c r="B13" t="s">
+        <v>129</v>
+      </c>
+      <c r="C13" s="5">
+        <v>300</v>
+      </c>
+      <c r="D13" s="5" t="s">
+        <v>123</v>
+      </c>
+      <c r="E13" s="5" t="s">
+        <v>119</v>
+      </c>
     </row>
     <row r="14" spans="1:6">
       <c r="A14"/>

--- a/data/eval_control.xlsx
+++ b/data/eval_control.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26501"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10409"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\winston\workspace\PyCharm\sinewave_analyze\data\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/rainyseason/winston/Workspace/python/Pycharm Project/sinewave_analyze/data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{724ED74C-0529-4CCA-99A7-72F3C3943F5A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B1B9FDE5-6785-B14C-8E80-D22C9BAFE6AD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="-32520" windowWidth="57840" windowHeight="32040" tabRatio="846" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="36740" yWindow="0" windowWidth="40060" windowHeight="43200" tabRatio="846" activeTab="8" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="file name" sheetId="1" r:id="rId1"/>
@@ -32,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="348" uniqueCount="133">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="349" uniqueCount="133">
   <si>
     <t>filename</t>
   </si>
@@ -380,14 +380,6 @@
   </si>
   <si>
     <t>E</t>
-  </si>
-  <si>
-    <t>summary 25 26 08Ch3.xlsx</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>summary 25 26 08Ch4.xlsx</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>info_test_00</t>
@@ -445,6 +437,14 @@
   </si>
   <si>
     <t>info_test_11</t>
+  </si>
+  <si>
+    <t>RF Curr Ch 1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>reduce 1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
 </file>
@@ -887,17 +887,17 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:G13"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
-      <selection activeCell="H20" sqref="H20"/>
+    <sheetView zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
+      <selection activeCell="R40" sqref="R40"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.5546875" defaultRowHeight="17.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11.5703125" defaultRowHeight="18"/>
   <cols>
-    <col min="1" max="1" width="11.33203125" style="2" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="10.109375" style="2" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="9.88671875" style="2" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="8.44140625" style="2" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="6.33203125" style="2" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="11.28515625" style="2" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="10.140625" style="2" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="9.85546875" style="2" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="8.42578125" style="2" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="6.28515625" style="2" bestFit="1" customWidth="1"/>
     <col min="6" max="7" width="15" style="2" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
@@ -923,19 +923,19 @@
     </row>
     <row r="2" spans="1:6">
       <c r="A2" t="s">
-        <v>118</v>
+        <v>116</v>
       </c>
       <c r="B2" t="s">
-        <v>126</v>
+        <v>124</v>
       </c>
       <c r="C2" s="5">
         <v>300</v>
       </c>
       <c r="D2" s="5" t="s">
-        <v>120</v>
+        <v>118</v>
       </c>
       <c r="E2" s="5" t="s">
-        <v>119</v>
+        <v>117</v>
       </c>
     </row>
     <row r="3" spans="1:6">
@@ -943,16 +943,16 @@
         <v>6</v>
       </c>
       <c r="B3" t="s">
-        <v>126</v>
+        <v>124</v>
       </c>
       <c r="C3" s="5">
         <v>300</v>
       </c>
       <c r="D3" s="5" t="s">
-        <v>121</v>
+        <v>119</v>
       </c>
       <c r="E3" s="5" t="s">
-        <v>119</v>
+        <v>117</v>
       </c>
     </row>
     <row r="4" spans="1:6">
@@ -960,16 +960,16 @@
         <v>7</v>
       </c>
       <c r="B4" t="s">
-        <v>126</v>
+        <v>124</v>
       </c>
       <c r="C4" s="5">
         <v>300</v>
       </c>
       <c r="D4" s="5" t="s">
-        <v>122</v>
+        <v>120</v>
       </c>
       <c r="E4" s="5" t="s">
-        <v>119</v>
+        <v>117</v>
       </c>
     </row>
     <row r="5" spans="1:6">
@@ -977,16 +977,16 @@
         <v>8</v>
       </c>
       <c r="B5" t="s">
-        <v>126</v>
+        <v>124</v>
       </c>
       <c r="C5" s="5">
         <v>300</v>
       </c>
       <c r="D5" s="5" t="s">
-        <v>123</v>
+        <v>121</v>
       </c>
       <c r="E5" s="5" t="s">
-        <v>119</v>
+        <v>117</v>
       </c>
     </row>
     <row r="6" spans="1:6">
@@ -994,16 +994,16 @@
         <v>9</v>
       </c>
       <c r="B6" t="s">
-        <v>127</v>
+        <v>125</v>
       </c>
       <c r="C6" s="5">
         <v>300</v>
       </c>
       <c r="D6" s="5" t="s">
-        <v>120</v>
+        <v>118</v>
       </c>
       <c r="E6" s="5" t="s">
-        <v>119</v>
+        <v>117</v>
       </c>
     </row>
     <row r="7" spans="1:6">
@@ -1011,16 +1011,16 @@
         <v>10</v>
       </c>
       <c r="B7" t="s">
-        <v>127</v>
+        <v>125</v>
       </c>
       <c r="C7" s="5">
         <v>300</v>
       </c>
       <c r="D7" s="5" t="s">
-        <v>121</v>
+        <v>119</v>
       </c>
       <c r="E7" s="5" t="s">
-        <v>119</v>
+        <v>117</v>
       </c>
     </row>
     <row r="8" spans="1:6">
@@ -1028,16 +1028,16 @@
         <v>11</v>
       </c>
       <c r="B8" t="s">
-        <v>127</v>
+        <v>125</v>
       </c>
       <c r="C8" s="5">
         <v>300</v>
       </c>
       <c r="D8" s="5" t="s">
-        <v>122</v>
+        <v>120</v>
       </c>
       <c r="E8" s="5" t="s">
-        <v>119</v>
+        <v>117</v>
       </c>
     </row>
     <row r="9" spans="1:6">
@@ -1045,84 +1045,84 @@
         <v>12</v>
       </c>
       <c r="B9" t="s">
-        <v>127</v>
+        <v>125</v>
       </c>
       <c r="C9" s="5">
         <v>300</v>
       </c>
       <c r="D9" s="5" t="s">
-        <v>123</v>
+        <v>121</v>
       </c>
       <c r="E9" s="5" t="s">
-        <v>119</v>
+        <v>117</v>
       </c>
     </row>
     <row r="10" spans="1:6">
       <c r="A10" t="s">
-        <v>128</v>
+        <v>126</v>
       </c>
       <c r="B10" t="s">
-        <v>129</v>
+        <v>127</v>
       </c>
       <c r="C10" s="5">
         <v>300</v>
       </c>
       <c r="D10" s="5" t="s">
-        <v>120</v>
+        <v>118</v>
       </c>
       <c r="E10" s="5" t="s">
-        <v>119</v>
+        <v>117</v>
       </c>
     </row>
     <row r="11" spans="1:6">
       <c r="A11" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
       <c r="B11" t="s">
-        <v>129</v>
+        <v>127</v>
       </c>
       <c r="C11" s="5">
         <v>300</v>
       </c>
       <c r="D11" s="5" t="s">
-        <v>121</v>
+        <v>119</v>
       </c>
       <c r="E11" s="5" t="s">
-        <v>119</v>
+        <v>117</v>
       </c>
     </row>
     <row r="12" spans="1:6">
       <c r="A12" t="s">
-        <v>131</v>
+        <v>129</v>
       </c>
       <c r="B12" t="s">
-        <v>129</v>
+        <v>127</v>
       </c>
       <c r="C12" s="5">
         <v>300</v>
       </c>
       <c r="D12" s="5" t="s">
-        <v>122</v>
+        <v>120</v>
       </c>
       <c r="E12" s="5" t="s">
-        <v>119</v>
+        <v>117</v>
       </c>
     </row>
     <row r="13" spans="1:6">
       <c r="A13" t="s">
-        <v>132</v>
+        <v>130</v>
       </c>
       <c r="B13" t="s">
-        <v>129</v>
+        <v>127</v>
       </c>
       <c r="C13" s="5">
         <v>300</v>
       </c>
       <c r="D13" s="5" t="s">
-        <v>123</v>
+        <v>121</v>
       </c>
       <c r="E13" s="5" t="s">
-        <v>119</v>
+        <v>117</v>
       </c>
     </row>
   </sheetData>
@@ -1139,7 +1139,7 @@
       <selection activeCell="A4" sqref="A4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.6640625" defaultRowHeight="17.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.7109375" defaultRowHeight="18"/>
   <cols>
     <col min="1" max="1" width="21" style="2" bestFit="1" customWidth="1"/>
   </cols>
@@ -1431,7 +1431,7 @@
       <selection activeCell="F10" sqref="F10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.6640625" defaultRowHeight="17.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.7109375" defaultRowHeight="18"/>
   <sheetData>
     <row r="1" spans="1:1">
       <c r="A1" t="s">
@@ -1467,10 +1467,10 @@
       <selection activeCell="F2" sqref="F2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.6640625" defaultRowHeight="17.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.7109375" defaultRowHeight="18"/>
   <cols>
-    <col min="1" max="1" width="22.44140625" style="2" bestFit="1" customWidth="1"/>
-    <col min="2" max="3" width="6.109375" style="2" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="22.42578125" style="2" bestFit="1" customWidth="1"/>
+    <col min="2" max="3" width="6.140625" style="2" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:3">
@@ -1506,9 +1506,9 @@
       <selection activeCell="D11" sqref="D11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.6640625" defaultRowHeight="17.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.7109375" defaultRowHeight="18"/>
   <cols>
-    <col min="1" max="1" width="28.6640625" style="2" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="28.7109375" style="2" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:6">
@@ -1585,13 +1585,13 @@
       <selection activeCell="A13" sqref="A2:E13"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.5546875" defaultRowHeight="17.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11.5703125" defaultRowHeight="18"/>
   <cols>
-    <col min="1" max="1" width="11.44140625" style="2" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="10.6640625" style="2" customWidth="1"/>
-    <col min="3" max="3" width="6.6640625" style="2" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="7.6640625" style="2" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="14.6640625" style="2" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="11.42578125" style="2" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="10.7109375" style="2" customWidth="1"/>
+    <col min="3" max="3" width="6.7109375" style="2" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="7.7109375" style="2" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="14.7109375" style="2" bestFit="1" customWidth="1"/>
     <col min="6" max="7" width="15" style="2" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
@@ -1617,19 +1617,19 @@
     </row>
     <row r="2" spans="1:6">
       <c r="A2" t="s">
-        <v>118</v>
+        <v>116</v>
       </c>
       <c r="B2" t="s">
-        <v>126</v>
+        <v>124</v>
       </c>
       <c r="C2" s="5">
         <v>300</v>
       </c>
       <c r="D2" s="5" t="s">
-        <v>120</v>
+        <v>118</v>
       </c>
       <c r="E2" s="5" t="s">
-        <v>119</v>
+        <v>117</v>
       </c>
     </row>
     <row r="3" spans="1:6">
@@ -1637,16 +1637,16 @@
         <v>6</v>
       </c>
       <c r="B3" t="s">
-        <v>126</v>
+        <v>124</v>
       </c>
       <c r="C3" s="5">
         <v>300</v>
       </c>
       <c r="D3" s="5" t="s">
-        <v>121</v>
+        <v>119</v>
       </c>
       <c r="E3" s="5" t="s">
-        <v>119</v>
+        <v>117</v>
       </c>
     </row>
     <row r="4" spans="1:6">
@@ -1654,16 +1654,16 @@
         <v>7</v>
       </c>
       <c r="B4" t="s">
-        <v>126</v>
+        <v>124</v>
       </c>
       <c r="C4" s="5">
         <v>300</v>
       </c>
       <c r="D4" s="5" t="s">
-        <v>122</v>
+        <v>120</v>
       </c>
       <c r="E4" s="5" t="s">
-        <v>119</v>
+        <v>117</v>
       </c>
     </row>
     <row r="5" spans="1:6">
@@ -1671,16 +1671,16 @@
         <v>8</v>
       </c>
       <c r="B5" t="s">
-        <v>126</v>
+        <v>124</v>
       </c>
       <c r="C5" s="5">
         <v>300</v>
       </c>
       <c r="D5" s="5" t="s">
-        <v>123</v>
+        <v>121</v>
       </c>
       <c r="E5" s="5" t="s">
-        <v>119</v>
+        <v>117</v>
       </c>
     </row>
     <row r="6" spans="1:6">
@@ -1688,16 +1688,16 @@
         <v>9</v>
       </c>
       <c r="B6" t="s">
-        <v>127</v>
+        <v>125</v>
       </c>
       <c r="C6" s="5">
         <v>300</v>
       </c>
       <c r="D6" s="5" t="s">
-        <v>120</v>
+        <v>118</v>
       </c>
       <c r="E6" s="5" t="s">
-        <v>119</v>
+        <v>117</v>
       </c>
     </row>
     <row r="7" spans="1:6">
@@ -1705,16 +1705,16 @@
         <v>10</v>
       </c>
       <c r="B7" t="s">
-        <v>127</v>
+        <v>125</v>
       </c>
       <c r="C7" s="5">
         <v>300</v>
       </c>
       <c r="D7" s="5" t="s">
-        <v>121</v>
+        <v>119</v>
       </c>
       <c r="E7" s="5" t="s">
-        <v>119</v>
+        <v>117</v>
       </c>
     </row>
     <row r="8" spans="1:6">
@@ -1722,16 +1722,16 @@
         <v>11</v>
       </c>
       <c r="B8" t="s">
-        <v>127</v>
+        <v>125</v>
       </c>
       <c r="C8" s="5">
         <v>300</v>
       </c>
       <c r="D8" s="5" t="s">
-        <v>122</v>
+        <v>120</v>
       </c>
       <c r="E8" s="5" t="s">
-        <v>119</v>
+        <v>117</v>
       </c>
     </row>
     <row r="9" spans="1:6">
@@ -1739,84 +1739,84 @@
         <v>12</v>
       </c>
       <c r="B9" t="s">
-        <v>127</v>
+        <v>125</v>
       </c>
       <c r="C9" s="5">
         <v>300</v>
       </c>
       <c r="D9" s="5" t="s">
-        <v>123</v>
+        <v>121</v>
       </c>
       <c r="E9" s="5" t="s">
-        <v>119</v>
+        <v>117</v>
       </c>
     </row>
     <row r="10" spans="1:6">
       <c r="A10" t="s">
-        <v>128</v>
+        <v>126</v>
       </c>
       <c r="B10" t="s">
-        <v>129</v>
+        <v>127</v>
       </c>
       <c r="C10" s="5">
         <v>300</v>
       </c>
       <c r="D10" s="5" t="s">
-        <v>120</v>
+        <v>118</v>
       </c>
       <c r="E10" s="5" t="s">
-        <v>119</v>
+        <v>117</v>
       </c>
     </row>
     <row r="11" spans="1:6">
       <c r="A11" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
       <c r="B11" t="s">
-        <v>129</v>
+        <v>127</v>
       </c>
       <c r="C11" s="5">
         <v>300</v>
       </c>
       <c r="D11" s="5" t="s">
-        <v>121</v>
+        <v>119</v>
       </c>
       <c r="E11" s="5" t="s">
-        <v>119</v>
+        <v>117</v>
       </c>
     </row>
     <row r="12" spans="1:6">
       <c r="A12" t="s">
-        <v>131</v>
+        <v>129</v>
       </c>
       <c r="B12" t="s">
-        <v>129</v>
+        <v>127</v>
       </c>
       <c r="C12" s="5">
         <v>300</v>
       </c>
       <c r="D12" s="5" t="s">
-        <v>122</v>
+        <v>120</v>
       </c>
       <c r="E12" s="5" t="s">
-        <v>119</v>
+        <v>117</v>
       </c>
     </row>
     <row r="13" spans="1:6">
       <c r="A13" t="s">
-        <v>132</v>
+        <v>130</v>
       </c>
       <c r="B13" t="s">
-        <v>129</v>
+        <v>127</v>
       </c>
       <c r="C13" s="5">
         <v>300</v>
       </c>
       <c r="D13" s="5" t="s">
-        <v>123</v>
+        <v>121</v>
       </c>
       <c r="E13" s="5" t="s">
-        <v>119</v>
+        <v>117</v>
       </c>
     </row>
     <row r="14" spans="1:6">
@@ -2372,7 +2372,7 @@
       <selection activeCell="D12" sqref="D12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.6640625" defaultRowHeight="17.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.7109375" defaultRowHeight="18"/>
   <cols>
     <col min="1" max="1" width="12" style="2" customWidth="1"/>
   </cols>
@@ -2384,12 +2384,12 @@
     </row>
     <row r="2" spans="1:1">
       <c r="A2" t="s">
-        <v>118</v>
+        <v>116</v>
       </c>
     </row>
     <row r="3" spans="1:1">
       <c r="A3" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
     </row>
     <row r="4" spans="1:1">
@@ -2436,9 +2436,9 @@
       <selection activeCell="B7" sqref="B7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.6640625" defaultRowHeight="17.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.7109375" defaultRowHeight="18"/>
   <cols>
-    <col min="1" max="1" width="21.6640625" style="2" customWidth="1"/>
+    <col min="1" max="1" width="21.7109375" style="2" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:1">
@@ -2448,7 +2448,7 @@
     </row>
     <row r="2" spans="1:1">
       <c r="A2" t="s">
-        <v>125</v>
+        <v>123</v>
       </c>
     </row>
     <row r="3" spans="1:1">
@@ -2530,10 +2530,10 @@
       <selection activeCell="B15" sqref="B15"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.6640625" defaultRowHeight="17.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.7109375" defaultRowHeight="18"/>
   <cols>
     <col min="1" max="1" width="19" style="2" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="20.33203125" style="2" customWidth="1"/>
+    <col min="2" max="2" width="20.28515625" style="2" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:2">
@@ -2676,11 +2676,11 @@
       <selection activeCell="F33" sqref="F33"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.6640625" defaultRowHeight="17.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.7109375" defaultRowHeight="18"/>
   <cols>
     <col min="1" max="1" width="19" style="2" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="20.33203125" style="2" customWidth="1"/>
-    <col min="7" max="7" width="10.6640625" style="2" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="20.28515625" style="2" customWidth="1"/>
+    <col min="7" max="7" width="10.7109375" style="2" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:2">
@@ -2780,10 +2780,10 @@
       <selection activeCell="B25" sqref="B25"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.6640625" defaultRowHeight="17.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.7109375" defaultRowHeight="18"/>
   <cols>
     <col min="1" max="1" width="19" style="2" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="20.33203125" style="2" customWidth="1"/>
+    <col min="2" max="2" width="20.28515625" style="2" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:2">
@@ -2936,10 +2936,10 @@
       <selection activeCell="C26" sqref="C26"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.6640625" defaultRowHeight="17.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.7109375" defaultRowHeight="18"/>
   <cols>
     <col min="1" max="1" width="21" style="2" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="16.109375" style="2" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="16.140625" style="2" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:3">
@@ -3063,97 +3063,103 @@
 
 <file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0E00-000000000000}">
-  <dimension ref="A1:C9"/>
+  <dimension ref="A1:B11"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B4" sqref="B4"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="U30" sqref="U30"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.6640625" defaultRowHeight="17.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.7109375" defaultRowHeight="18"/>
   <cols>
-    <col min="1" max="1" width="24.44140625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="12.6640625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="8.5546875" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="12.7109375" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="8.5703125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3">
+    <row r="1" spans="1:2">
       <c r="A1" s="7" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="B1" s="7" t="s">
-        <v>87</v>
-      </c>
-      <c r="C1" s="7" t="s">
         <v>88</v>
       </c>
     </row>
-    <row r="2" spans="1:3">
+    <row r="2" spans="1:2">
       <c r="A2" t="s">
-        <v>116</v>
+        <v>30</v>
       </c>
       <c r="B2" t="s">
-        <v>30</v>
-      </c>
-      <c r="C2" t="s">
-        <v>90</v>
-      </c>
-    </row>
-    <row r="3" spans="1:3">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2">
       <c r="A3" t="s">
-        <v>117</v>
+        <v>32</v>
       </c>
       <c r="B3" t="s">
-        <v>32</v>
-      </c>
-      <c r="C3" t="s">
-        <v>90</v>
-      </c>
-    </row>
-    <row r="4" spans="1:3">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2">
+      <c r="A4" t="s">
+        <v>33</v>
+      </c>
       <c r="B4" t="s">
-        <v>33</v>
-      </c>
-      <c r="C4" t="s">
-        <v>90</v>
-      </c>
-    </row>
-    <row r="5" spans="1:3">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2">
+      <c r="A5" t="s">
+        <v>34</v>
+      </c>
       <c r="B5" t="s">
-        <v>34</v>
-      </c>
-      <c r="C5" t="s">
-        <v>90</v>
-      </c>
-    </row>
-    <row r="6" spans="1:3">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2">
+      <c r="A6" t="s">
+        <v>131</v>
+      </c>
       <c r="B6" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2">
+      <c r="A7" t="s">
         <v>39</v>
       </c>
-      <c r="C6" t="s">
+      <c r="B7" t="s">
         <v>92</v>
       </c>
     </row>
-    <row r="7" spans="1:3">
-      <c r="B7" t="s">
+    <row r="8" spans="1:2">
+      <c r="A8" t="s">
         <v>40</v>
       </c>
-      <c r="C7" t="s">
+      <c r="B8" t="s">
         <v>92</v>
       </c>
     </row>
-    <row r="8" spans="1:3">
-      <c r="B8" t="s">
+    <row r="9" spans="1:2">
+      <c r="A9" t="s">
         <v>41</v>
       </c>
-      <c r="C8" t="s">
+      <c r="B9" t="s">
         <v>92</v>
       </c>
     </row>
-    <row r="9" spans="1:3">
-      <c r="B9" t="s">
+    <row r="10" spans="1:2">
+      <c r="A10" t="s">
         <v>42</v>
       </c>
-      <c r="C9" t="s">
+      <c r="B10" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="11" spans="1:2">
+      <c r="A11" t="s">
+        <v>43</v>
+      </c>
+      <c r="B11" t="s">
         <v>92</v>
       </c>
     </row>

--- a/data/eval_control.xlsx
+++ b/data/eval_control.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10409"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26501"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/rainyseason/winston/Workspace/python/Pycharm Project/sinewave_analyze/data/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\winston\workspace\PyCharm\sinewave_analyze\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B1B9FDE5-6785-B14C-8E80-D22C9BAFE6AD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{102C6C6F-7C5E-4183-BEB2-F8CECA6B1B64}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="36740" yWindow="0" windowWidth="40060" windowHeight="43200" tabRatio="846" activeTab="8" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="28305" yWindow="-15060" windowWidth="21600" windowHeight="11325" tabRatio="846" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="file name" sheetId="1" r:id="rId1"/>
@@ -32,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="349" uniqueCount="133">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="361" uniqueCount="144">
   <si>
     <t>filename</t>
   </si>
@@ -444,6 +444,42 @@
   </si>
   <si>
     <t>reduce 1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>info_test_12</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>RFAMP_04</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>info_test_13</t>
+  </si>
+  <si>
+    <t>info_test_14</t>
+  </si>
+  <si>
+    <t>info_test_15</t>
+  </si>
+  <si>
+    <t>info_test_16</t>
+  </si>
+  <si>
+    <t>info_test_17</t>
+  </si>
+  <si>
+    <t>info_test_18</t>
+  </si>
+  <si>
+    <t>info_test_19</t>
+  </si>
+  <si>
+    <t>RFAMP_04</t>
+  </si>
+  <si>
+    <t>RFAMP_05</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -887,17 +923,17 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:G13"/>
   <sheetViews>
-    <sheetView zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
-      <selection activeCell="R40" sqref="R40"/>
+    <sheetView tabSelected="1" zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
+      <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="11.5703125" defaultRowHeight="18"/>
+  <sheetFormatPr defaultColWidth="11.5546875" defaultRowHeight="17.25"/>
   <cols>
-    <col min="1" max="1" width="11.28515625" style="2" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="10.140625" style="2" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="9.85546875" style="2" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="8.42578125" style="2" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="6.28515625" style="2" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="11.33203125" style="2" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="10.109375" style="2" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="9.88671875" style="2" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="8.44140625" style="2" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="6.33203125" style="2" bestFit="1" customWidth="1"/>
     <col min="6" max="7" width="15" style="2" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
@@ -923,16 +959,16 @@
     </row>
     <row r="2" spans="1:6">
       <c r="A2" t="s">
-        <v>116</v>
+        <v>135</v>
       </c>
       <c r="B2" t="s">
-        <v>124</v>
+        <v>134</v>
       </c>
       <c r="C2" s="5">
         <v>300</v>
       </c>
       <c r="D2" s="5" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="E2" s="5" t="s">
         <v>117</v>
@@ -940,16 +976,16 @@
     </row>
     <row r="3" spans="1:6">
       <c r="A3" t="s">
-        <v>6</v>
+        <v>136</v>
       </c>
       <c r="B3" t="s">
-        <v>124</v>
+        <v>142</v>
       </c>
       <c r="C3" s="5">
         <v>300</v>
       </c>
       <c r="D3" s="5" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="E3" s="5" t="s">
         <v>117</v>
@@ -957,16 +993,16 @@
     </row>
     <row r="4" spans="1:6">
       <c r="A4" t="s">
-        <v>7</v>
+        <v>137</v>
       </c>
       <c r="B4" t="s">
-        <v>124</v>
+        <v>142</v>
       </c>
       <c r="C4" s="5">
         <v>300</v>
       </c>
       <c r="D4" s="5" t="s">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="E4" s="5" t="s">
         <v>117</v>
@@ -974,16 +1010,16 @@
     </row>
     <row r="5" spans="1:6">
       <c r="A5" t="s">
-        <v>8</v>
+        <v>138</v>
       </c>
       <c r="B5" t="s">
-        <v>124</v>
+        <v>143</v>
       </c>
       <c r="C5" s="5">
         <v>300</v>
       </c>
       <c r="D5" s="5" t="s">
-        <v>121</v>
+        <v>118</v>
       </c>
       <c r="E5" s="5" t="s">
         <v>117</v>
@@ -991,16 +1027,16 @@
     </row>
     <row r="6" spans="1:6">
       <c r="A6" t="s">
-        <v>9</v>
+        <v>139</v>
       </c>
       <c r="B6" t="s">
-        <v>125</v>
+        <v>143</v>
       </c>
       <c r="C6" s="5">
         <v>300</v>
       </c>
       <c r="D6" s="5" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="E6" s="5" t="s">
         <v>117</v>
@@ -1008,16 +1044,16 @@
     </row>
     <row r="7" spans="1:6">
       <c r="A7" t="s">
-        <v>10</v>
+        <v>140</v>
       </c>
       <c r="B7" t="s">
-        <v>125</v>
+        <v>143</v>
       </c>
       <c r="C7" s="5">
         <v>300</v>
       </c>
       <c r="D7" s="5" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="E7" s="5" t="s">
         <v>117</v>
@@ -1025,105 +1061,55 @@
     </row>
     <row r="8" spans="1:6">
       <c r="A8" t="s">
-        <v>11</v>
+        <v>141</v>
       </c>
       <c r="B8" t="s">
-        <v>125</v>
+        <v>143</v>
       </c>
       <c r="C8" s="5">
         <v>300</v>
       </c>
       <c r="D8" s="5" t="s">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="E8" s="5" t="s">
         <v>117</v>
       </c>
     </row>
     <row r="9" spans="1:6">
-      <c r="A9" t="s">
-        <v>12</v>
-      </c>
-      <c r="B9" t="s">
-        <v>125</v>
-      </c>
-      <c r="C9" s="5">
-        <v>300</v>
-      </c>
-      <c r="D9" s="5" t="s">
-        <v>121</v>
-      </c>
-      <c r="E9" s="5" t="s">
-        <v>117</v>
-      </c>
+      <c r="A9"/>
+      <c r="B9"/>
+      <c r="C9" s="5"/>
+      <c r="D9" s="5"/>
+      <c r="E9" s="5"/>
     </row>
     <row r="10" spans="1:6">
-      <c r="A10" t="s">
-        <v>126</v>
-      </c>
-      <c r="B10" t="s">
-        <v>127</v>
-      </c>
-      <c r="C10" s="5">
-        <v>300</v>
-      </c>
-      <c r="D10" s="5" t="s">
-        <v>118</v>
-      </c>
-      <c r="E10" s="5" t="s">
-        <v>117</v>
-      </c>
+      <c r="A10"/>
+      <c r="B10"/>
+      <c r="C10" s="5"/>
+      <c r="D10" s="5"/>
+      <c r="E10" s="5"/>
     </row>
     <row r="11" spans="1:6">
-      <c r="A11" t="s">
-        <v>128</v>
-      </c>
-      <c r="B11" t="s">
-        <v>127</v>
-      </c>
-      <c r="C11" s="5">
-        <v>300</v>
-      </c>
-      <c r="D11" s="5" t="s">
-        <v>119</v>
-      </c>
-      <c r="E11" s="5" t="s">
-        <v>117</v>
-      </c>
+      <c r="A11"/>
+      <c r="B11"/>
+      <c r="C11" s="5"/>
+      <c r="D11" s="5"/>
+      <c r="E11" s="5"/>
     </row>
     <row r="12" spans="1:6">
-      <c r="A12" t="s">
-        <v>129</v>
-      </c>
-      <c r="B12" t="s">
-        <v>127</v>
-      </c>
-      <c r="C12" s="5">
-        <v>300</v>
-      </c>
-      <c r="D12" s="5" t="s">
-        <v>120</v>
-      </c>
-      <c r="E12" s="5" t="s">
-        <v>117</v>
-      </c>
+      <c r="A12"/>
+      <c r="B12"/>
+      <c r="C12" s="5"/>
+      <c r="D12" s="5"/>
+      <c r="E12" s="5"/>
     </row>
     <row r="13" spans="1:6">
-      <c r="A13" t="s">
-        <v>130</v>
-      </c>
-      <c r="B13" t="s">
-        <v>127</v>
-      </c>
-      <c r="C13" s="5">
-        <v>300</v>
-      </c>
-      <c r="D13" s="5" t="s">
-        <v>121</v>
-      </c>
-      <c r="E13" s="5" t="s">
-        <v>117</v>
-      </c>
+      <c r="A13"/>
+      <c r="B13"/>
+      <c r="C13" s="5"/>
+      <c r="D13" s="5"/>
+      <c r="E13" s="5"/>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
@@ -1139,7 +1125,7 @@
       <selection activeCell="A4" sqref="A4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.7109375" defaultRowHeight="18"/>
+  <sheetFormatPr defaultColWidth="8.6640625" defaultRowHeight="17.25"/>
   <cols>
     <col min="1" max="1" width="21" style="2" bestFit="1" customWidth="1"/>
   </cols>
@@ -1431,7 +1417,7 @@
       <selection activeCell="F10" sqref="F10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.7109375" defaultRowHeight="18"/>
+  <sheetFormatPr defaultColWidth="8.6640625" defaultRowHeight="17.25"/>
   <sheetData>
     <row r="1" spans="1:1">
       <c r="A1" t="s">
@@ -1467,10 +1453,10 @@
       <selection activeCell="F2" sqref="F2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.7109375" defaultRowHeight="18"/>
+  <sheetFormatPr defaultColWidth="8.6640625" defaultRowHeight="17.25"/>
   <cols>
-    <col min="1" max="1" width="22.42578125" style="2" bestFit="1" customWidth="1"/>
-    <col min="2" max="3" width="6.140625" style="2" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="22.44140625" style="2" bestFit="1" customWidth="1"/>
+    <col min="2" max="3" width="6.109375" style="2" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:3">
@@ -1506,9 +1492,9 @@
       <selection activeCell="D11" sqref="D11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.7109375" defaultRowHeight="18"/>
+  <sheetFormatPr defaultColWidth="8.6640625" defaultRowHeight="17.25"/>
   <cols>
-    <col min="1" max="1" width="28.7109375" style="2" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="28.6640625" style="2" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:6">
@@ -1579,19 +1565,19 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
-  <dimension ref="A1:G90"/>
+  <dimension ref="A1:G1048576"/>
   <sheetViews>
-    <sheetView zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
-      <selection activeCell="A13" sqref="A2:E13"/>
+    <sheetView topLeftCell="A7" zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
+      <selection activeCell="E21" sqref="A15:E21"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="11.5703125" defaultRowHeight="18"/>
+  <sheetFormatPr defaultColWidth="11.5546875" defaultRowHeight="17.25"/>
   <cols>
-    <col min="1" max="1" width="11.42578125" style="2" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="10.7109375" style="2" customWidth="1"/>
-    <col min="3" max="3" width="6.7109375" style="2" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="7.7109375" style="2" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="14.7109375" style="2" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="11.44140625" style="2" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="10.6640625" style="2" customWidth="1"/>
+    <col min="3" max="3" width="6.6640625" style="2" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="7.6640625" style="2" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="14.6640625" style="2" bestFit="1" customWidth="1"/>
     <col min="6" max="7" width="15" style="2" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
@@ -1820,60 +1806,140 @@
       </c>
     </row>
     <row r="14" spans="1:6">
-      <c r="A14"/>
-      <c r="B14"/>
-      <c r="C14" s="5"/>
-      <c r="D14" s="5"/>
-      <c r="E14" s="5"/>
+      <c r="A14" t="s">
+        <v>133</v>
+      </c>
+      <c r="B14" t="s">
+        <v>134</v>
+      </c>
+      <c r="C14" s="5">
+        <v>300</v>
+      </c>
+      <c r="D14" s="5" t="s">
+        <v>118</v>
+      </c>
+      <c r="E14" s="5" t="s">
+        <v>117</v>
+      </c>
     </row>
     <row r="15" spans="1:6">
-      <c r="A15"/>
-      <c r="B15"/>
-      <c r="C15" s="5"/>
-      <c r="D15" s="5"/>
-      <c r="E15" s="5"/>
+      <c r="A15" t="s">
+        <v>135</v>
+      </c>
+      <c r="B15" t="s">
+        <v>134</v>
+      </c>
+      <c r="C15" s="5">
+        <v>300</v>
+      </c>
+      <c r="D15" s="5" t="s">
+        <v>119</v>
+      </c>
+      <c r="E15" s="5" t="s">
+        <v>117</v>
+      </c>
     </row>
     <row r="16" spans="1:6">
-      <c r="A16"/>
-      <c r="B16"/>
-      <c r="C16" s="5"/>
-      <c r="D16" s="5"/>
-      <c r="E16" s="5"/>
+      <c r="A16" t="s">
+        <v>136</v>
+      </c>
+      <c r="B16" t="s">
+        <v>142</v>
+      </c>
+      <c r="C16" s="5">
+        <v>300</v>
+      </c>
+      <c r="D16" s="5" t="s">
+        <v>120</v>
+      </c>
+      <c r="E16" s="5" t="s">
+        <v>117</v>
+      </c>
     </row>
     <row r="17" spans="1:5">
-      <c r="A17"/>
-      <c r="B17"/>
-      <c r="C17" s="5"/>
-      <c r="D17" s="5"/>
-      <c r="E17" s="5"/>
+      <c r="A17" t="s">
+        <v>137</v>
+      </c>
+      <c r="B17" t="s">
+        <v>142</v>
+      </c>
+      <c r="C17" s="5">
+        <v>300</v>
+      </c>
+      <c r="D17" s="5" t="s">
+        <v>121</v>
+      </c>
+      <c r="E17" s="5" t="s">
+        <v>117</v>
+      </c>
     </row>
     <row r="18" spans="1:5">
-      <c r="A18"/>
-      <c r="B18"/>
-      <c r="C18" s="5"/>
-      <c r="D18" s="5"/>
-      <c r="E18" s="5"/>
+      <c r="A18" t="s">
+        <v>138</v>
+      </c>
+      <c r="B18" t="s">
+        <v>143</v>
+      </c>
+      <c r="C18" s="5">
+        <v>300</v>
+      </c>
+      <c r="D18" s="5" t="s">
+        <v>118</v>
+      </c>
+      <c r="E18" s="5" t="s">
+        <v>117</v>
+      </c>
     </row>
     <row r="19" spans="1:5">
-      <c r="A19"/>
-      <c r="B19"/>
-      <c r="C19" s="5"/>
-      <c r="D19" s="5"/>
-      <c r="E19" s="5"/>
+      <c r="A19" t="s">
+        <v>139</v>
+      </c>
+      <c r="B19" t="s">
+        <v>143</v>
+      </c>
+      <c r="C19" s="5">
+        <v>300</v>
+      </c>
+      <c r="D19" s="5" t="s">
+        <v>119</v>
+      </c>
+      <c r="E19" s="5" t="s">
+        <v>117</v>
+      </c>
     </row>
     <row r="20" spans="1:5">
-      <c r="A20"/>
-      <c r="B20"/>
-      <c r="C20" s="5"/>
-      <c r="D20" s="5"/>
-      <c r="E20" s="5"/>
+      <c r="A20" t="s">
+        <v>140</v>
+      </c>
+      <c r="B20" t="s">
+        <v>143</v>
+      </c>
+      <c r="C20" s="5">
+        <v>300</v>
+      </c>
+      <c r="D20" s="5" t="s">
+        <v>120</v>
+      </c>
+      <c r="E20" s="5" t="s">
+        <v>117</v>
+      </c>
     </row>
     <row r="21" spans="1:5">
-      <c r="A21"/>
-      <c r="B21"/>
-      <c r="C21" s="5"/>
-      <c r="D21" s="5"/>
-      <c r="E21" s="5"/>
+      <c r="A21" t="s">
+        <v>141</v>
+      </c>
+      <c r="B21" t="s">
+        <v>143</v>
+      </c>
+      <c r="C21" s="5">
+        <v>300</v>
+      </c>
+      <c r="D21" s="5" t="s">
+        <v>121</v>
+      </c>
+      <c r="E21" s="5" t="s">
+        <v>117</v>
+      </c>
     </row>
     <row r="22" spans="1:5">
       <c r="A22"/>
@@ -2357,6 +2423,9 @@
       <c r="C90" s="5"/>
       <c r="D90" s="5"/>
       <c r="E90" s="5"/>
+    </row>
+    <row r="1048576" spans="2:2">
+      <c r="B1048576"/>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
@@ -2372,7 +2441,7 @@
       <selection activeCell="D12" sqref="D12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.7109375" defaultRowHeight="18"/>
+  <sheetFormatPr defaultColWidth="8.6640625" defaultRowHeight="17.25"/>
   <cols>
     <col min="1" max="1" width="12" style="2" customWidth="1"/>
   </cols>
@@ -2436,9 +2505,9 @@
       <selection activeCell="B7" sqref="B7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.7109375" defaultRowHeight="18"/>
+  <sheetFormatPr defaultColWidth="8.6640625" defaultRowHeight="17.25"/>
   <cols>
-    <col min="1" max="1" width="21.7109375" style="2" customWidth="1"/>
+    <col min="1" max="1" width="21.6640625" style="2" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:1">
@@ -2530,10 +2599,10 @@
       <selection activeCell="B15" sqref="B15"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.7109375" defaultRowHeight="18"/>
+  <sheetFormatPr defaultColWidth="8.6640625" defaultRowHeight="17.25"/>
   <cols>
     <col min="1" max="1" width="19" style="2" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="20.28515625" style="2" customWidth="1"/>
+    <col min="2" max="2" width="20.33203125" style="2" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:2">
@@ -2676,11 +2745,11 @@
       <selection activeCell="F33" sqref="F33"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.7109375" defaultRowHeight="18"/>
+  <sheetFormatPr defaultColWidth="8.6640625" defaultRowHeight="17.25"/>
   <cols>
     <col min="1" max="1" width="19" style="2" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="20.28515625" style="2" customWidth="1"/>
-    <col min="7" max="7" width="10.7109375" style="2" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="20.33203125" style="2" customWidth="1"/>
+    <col min="7" max="7" width="10.6640625" style="2" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:2">
@@ -2780,10 +2849,10 @@
       <selection activeCell="B25" sqref="B25"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.7109375" defaultRowHeight="18"/>
+  <sheetFormatPr defaultColWidth="8.6640625" defaultRowHeight="17.25"/>
   <cols>
     <col min="1" max="1" width="19" style="2" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="20.28515625" style="2" customWidth="1"/>
+    <col min="2" max="2" width="20.33203125" style="2" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:2">
@@ -2936,10 +3005,10 @@
       <selection activeCell="C26" sqref="C26"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.7109375" defaultRowHeight="18"/>
+  <sheetFormatPr defaultColWidth="8.6640625" defaultRowHeight="17.25"/>
   <cols>
     <col min="1" max="1" width="21" style="2" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="16.140625" style="2" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="16.109375" style="2" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:3">
@@ -3065,14 +3134,14 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0E00-000000000000}">
   <dimension ref="A1:B11"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="U30" sqref="U30"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.7109375" defaultRowHeight="18"/>
+  <sheetFormatPr defaultColWidth="8.6640625" defaultRowHeight="17.25"/>
   <cols>
-    <col min="1" max="1" width="12.7109375" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="8.5703125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="12.6640625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="8.5546875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:2">

--- a/data/eval_control.xlsx
+++ b/data/eval_control.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26501"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26626"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\winston\workspace\PyCharm\sinewave_analyze\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{102C6C6F-7C5E-4183-BEB2-F8CECA6B1B64}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AC815931-D459-4145-AE09-D10F0E75C09E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28305" yWindow="-15060" windowWidth="21600" windowHeight="11325" tabRatio="846" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-30840" yWindow="-105" windowWidth="30960" windowHeight="22680" tabRatio="846" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="file name" sheetId="1" r:id="rId1"/>
@@ -32,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="361" uniqueCount="144">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="361" uniqueCount="145">
   <si>
     <t>filename</t>
   </si>
@@ -480,6 +480,10 @@
   </si>
   <si>
     <t>RFAMP_05</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Curr</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -487,7 +491,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="8">
+  <fonts count="8" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -924,10 +928,10 @@
   <dimension ref="A1:G13"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
+      <selection activeCell="E9" sqref="E9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.5546875" defaultRowHeight="17.25"/>
+  <sheetFormatPr defaultColWidth="11.5546875" defaultRowHeight="17.25" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="11.33203125" style="2" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="10.109375" style="2" bestFit="1" customWidth="1"/>
@@ -937,7 +941,7 @@
     <col min="6" max="7" width="15" style="2" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A1" s="3" t="s">
         <v>0</v>
       </c>
@@ -957,7 +961,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="2" spans="1:6">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>135</v>
       </c>
@@ -971,10 +975,10 @@
         <v>119</v>
       </c>
       <c r="E2" s="5" t="s">
-        <v>117</v>
-      </c>
-    </row>
-    <row r="3" spans="1:6">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>136</v>
       </c>
@@ -988,10 +992,10 @@
         <v>120</v>
       </c>
       <c r="E3" s="5" t="s">
-        <v>117</v>
-      </c>
-    </row>
-    <row r="4" spans="1:6">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
         <v>137</v>
       </c>
@@ -1005,10 +1009,10 @@
         <v>121</v>
       </c>
       <c r="E4" s="5" t="s">
-        <v>117</v>
-      </c>
-    </row>
-    <row r="5" spans="1:6">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
         <v>138</v>
       </c>
@@ -1022,10 +1026,10 @@
         <v>118</v>
       </c>
       <c r="E5" s="5" t="s">
-        <v>117</v>
-      </c>
-    </row>
-    <row r="6" spans="1:6">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
         <v>139</v>
       </c>
@@ -1039,10 +1043,10 @@
         <v>119</v>
       </c>
       <c r="E6" s="5" t="s">
-        <v>117</v>
-      </c>
-    </row>
-    <row r="7" spans="1:6">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
         <v>140</v>
       </c>
@@ -1056,10 +1060,10 @@
         <v>120</v>
       </c>
       <c r="E7" s="5" t="s">
-        <v>117</v>
-      </c>
-    </row>
-    <row r="8" spans="1:6">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
         <v>141</v>
       </c>
@@ -1073,38 +1077,38 @@
         <v>121</v>
       </c>
       <c r="E8" s="5" t="s">
-        <v>117</v>
-      </c>
-    </row>
-    <row r="9" spans="1:6">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A9"/>
       <c r="B9"/>
       <c r="C9" s="5"/>
       <c r="D9" s="5"/>
       <c r="E9" s="5"/>
     </row>
-    <row r="10" spans="1:6">
+    <row r="10" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A10"/>
       <c r="B10"/>
       <c r="C10" s="5"/>
       <c r="D10" s="5"/>
       <c r="E10" s="5"/>
     </row>
-    <row r="11" spans="1:6">
+    <row r="11" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A11"/>
       <c r="B11"/>
       <c r="C11" s="5"/>
       <c r="D11" s="5"/>
       <c r="E11" s="5"/>
     </row>
-    <row r="12" spans="1:6">
+    <row r="12" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A12"/>
       <c r="B12"/>
       <c r="C12" s="5"/>
       <c r="D12" s="5"/>
       <c r="E12" s="5"/>
     </row>
-    <row r="13" spans="1:6">
+    <row r="13" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A13"/>
       <c r="B13"/>
       <c r="C13" s="5"/>
@@ -1125,12 +1129,12 @@
       <selection activeCell="A4" sqref="A4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.6640625" defaultRowHeight="17.25"/>
+  <sheetFormatPr defaultColWidth="8.6640625" defaultRowHeight="17.25" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="21" style="2" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A1" s="3" t="s">
         <v>86</v>
       </c>
@@ -1141,7 +1145,7 @@
         <v>88</v>
       </c>
     </row>
-    <row r="2" spans="1:3">
+    <row r="2" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>93</v>
       </c>
@@ -1152,7 +1156,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="3" spans="1:3">
+    <row r="3" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>94</v>
       </c>
@@ -1163,7 +1167,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="4" spans="1:3">
+    <row r="4" spans="1:3" x14ac:dyDescent="0.3">
       <c r="B4" t="s">
         <v>58</v>
       </c>
@@ -1171,7 +1175,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="5" spans="1:3">
+    <row r="5" spans="1:3" x14ac:dyDescent="0.3">
       <c r="B5" t="s">
         <v>60</v>
       </c>
@@ -1179,7 +1183,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="6" spans="1:3">
+    <row r="6" spans="1:3" x14ac:dyDescent="0.3">
       <c r="B6" t="s">
         <v>62</v>
       </c>
@@ -1187,7 +1191,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="7" spans="1:3">
+    <row r="7" spans="1:3" x14ac:dyDescent="0.3">
       <c r="B7" t="s">
         <v>64</v>
       </c>
@@ -1195,7 +1199,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="8" spans="1:3">
+    <row r="8" spans="1:3" x14ac:dyDescent="0.3">
       <c r="B8" t="s">
         <v>66</v>
       </c>
@@ -1203,7 +1207,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="9" spans="1:3">
+    <row r="9" spans="1:3" x14ac:dyDescent="0.3">
       <c r="B9" t="s">
         <v>68</v>
       </c>
@@ -1211,7 +1215,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="10" spans="1:3">
+    <row r="10" spans="1:3" x14ac:dyDescent="0.3">
       <c r="B10" t="s">
         <v>70</v>
       </c>
@@ -1219,7 +1223,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="11" spans="1:3">
+    <row r="11" spans="1:3" x14ac:dyDescent="0.3">
       <c r="B11" t="s">
         <v>72</v>
       </c>
@@ -1227,7 +1231,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="12" spans="1:3">
+    <row r="12" spans="1:3" x14ac:dyDescent="0.3">
       <c r="B12" t="s">
         <v>74</v>
       </c>
@@ -1235,7 +1239,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="13" spans="1:3">
+    <row r="13" spans="1:3" x14ac:dyDescent="0.3">
       <c r="B13" t="s">
         <v>76</v>
       </c>
@@ -1243,7 +1247,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="14" spans="1:3">
+    <row r="14" spans="1:3" x14ac:dyDescent="0.3">
       <c r="B14" t="s">
         <v>78</v>
       </c>
@@ -1251,7 +1255,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="15" spans="1:3">
+    <row r="15" spans="1:3" x14ac:dyDescent="0.3">
       <c r="B15" t="s">
         <v>80</v>
       </c>
@@ -1259,7 +1263,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="16" spans="1:3">
+    <row r="16" spans="1:3" x14ac:dyDescent="0.3">
       <c r="B16" t="s">
         <v>82</v>
       </c>
@@ -1267,7 +1271,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="17" spans="2:3">
+    <row r="17" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B17" t="s">
         <v>84</v>
       </c>
@@ -1275,7 +1279,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="18" spans="2:3">
+    <row r="18" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B18" t="s">
         <v>55</v>
       </c>
@@ -1283,7 +1287,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="19" spans="2:3">
+    <row r="19" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B19" t="s">
         <v>57</v>
       </c>
@@ -1291,7 +1295,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="20" spans="2:3">
+    <row r="20" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B20" t="s">
         <v>59</v>
       </c>
@@ -1299,7 +1303,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="21" spans="2:3">
+    <row r="21" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B21" t="s">
         <v>61</v>
       </c>
@@ -1307,7 +1311,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="22" spans="2:3">
+    <row r="22" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B22" t="s">
         <v>63</v>
       </c>
@@ -1315,7 +1319,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="23" spans="2:3">
+    <row r="23" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B23" t="s">
         <v>65</v>
       </c>
@@ -1323,7 +1327,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="24" spans="2:3">
+    <row r="24" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B24" t="s">
         <v>67</v>
       </c>
@@ -1331,7 +1335,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="25" spans="2:3">
+    <row r="25" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B25" t="s">
         <v>69</v>
       </c>
@@ -1339,7 +1343,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="26" spans="2:3">
+    <row r="26" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B26" s="1" t="s">
         <v>71</v>
       </c>
@@ -1347,7 +1351,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="27" spans="2:3">
+    <row r="27" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B27" s="1" t="s">
         <v>73</v>
       </c>
@@ -1355,7 +1359,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="28" spans="2:3">
+    <row r="28" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B28" s="1" t="s">
         <v>75</v>
       </c>
@@ -1363,7 +1367,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="29" spans="2:3">
+    <row r="29" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B29" s="1" t="s">
         <v>77</v>
       </c>
@@ -1371,7 +1375,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="30" spans="2:3">
+    <row r="30" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B30" s="1" t="s">
         <v>79</v>
       </c>
@@ -1379,7 +1383,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="31" spans="2:3">
+    <row r="31" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B31" s="1" t="s">
         <v>81</v>
       </c>
@@ -1387,7 +1391,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="32" spans="2:3">
+    <row r="32" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B32" s="1" t="s">
         <v>83</v>
       </c>
@@ -1395,7 +1399,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="33" spans="2:3">
+    <row r="33" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B33" s="1" t="s">
         <v>85</v>
       </c>
@@ -1417,24 +1421,24 @@
       <selection activeCell="F10" sqref="F10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.6640625" defaultRowHeight="17.25"/>
+  <sheetFormatPr defaultColWidth="8.6640625" defaultRowHeight="17.25" x14ac:dyDescent="0.3"/>
   <sheetData>
-    <row r="1" spans="1:1">
+    <row r="1" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="2" spans="1:1">
+    <row r="2" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>96</v>
       </c>
     </row>
-    <row r="3" spans="1:1">
+    <row r="3" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="4" spans="1:1">
+    <row r="4" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
         <v>97</v>
       </c>
@@ -1453,13 +1457,13 @@
       <selection activeCell="F2" sqref="F2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.6640625" defaultRowHeight="17.25"/>
+  <sheetFormatPr defaultColWidth="8.6640625" defaultRowHeight="17.25" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="22.44140625" style="2" bestFit="1" customWidth="1"/>
     <col min="2" max="3" width="6.109375" style="2" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>98</v>
       </c>
@@ -1470,7 +1474,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="2" spans="1:3">
+    <row r="2" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>101</v>
       </c>
@@ -1492,12 +1496,12 @@
       <selection activeCell="D11" sqref="D11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.6640625" defaultRowHeight="17.25"/>
+  <sheetFormatPr defaultColWidth="8.6640625" defaultRowHeight="17.25" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="28.6640625" style="2" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>98</v>
       </c>
@@ -1517,7 +1521,7 @@
         <v>107</v>
       </c>
     </row>
-    <row r="2" spans="1:6">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>108</v>
       </c>
@@ -1537,7 +1541,7 @@
         <v>113</v>
       </c>
     </row>
-    <row r="3" spans="1:6">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>114</v>
       </c>
@@ -1571,7 +1575,7 @@
       <selection activeCell="E21" sqref="A15:E21"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.5546875" defaultRowHeight="17.25"/>
+  <sheetFormatPr defaultColWidth="11.5546875" defaultRowHeight="17.25" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="11.44140625" style="2" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="10.6640625" style="2" customWidth="1"/>
@@ -1581,7 +1585,7 @@
     <col min="6" max="7" width="15" style="2" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A1" s="3" t="s">
         <v>0</v>
       </c>
@@ -1601,7 +1605,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="2" spans="1:6">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>116</v>
       </c>
@@ -1618,7 +1622,7 @@
         <v>117</v>
       </c>
     </row>
-    <row r="3" spans="1:6">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>6</v>
       </c>
@@ -1635,7 +1639,7 @@
         <v>117</v>
       </c>
     </row>
-    <row r="4" spans="1:6">
+    <row r="4" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
         <v>7</v>
       </c>
@@ -1652,7 +1656,7 @@
         <v>117</v>
       </c>
     </row>
-    <row r="5" spans="1:6">
+    <row r="5" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
         <v>8</v>
       </c>
@@ -1669,7 +1673,7 @@
         <v>117</v>
       </c>
     </row>
-    <row r="6" spans="1:6">
+    <row r="6" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
         <v>9</v>
       </c>
@@ -1686,7 +1690,7 @@
         <v>117</v>
       </c>
     </row>
-    <row r="7" spans="1:6">
+    <row r="7" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
         <v>10</v>
       </c>
@@ -1703,7 +1707,7 @@
         <v>117</v>
       </c>
     </row>
-    <row r="8" spans="1:6">
+    <row r="8" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
         <v>11</v>
       </c>
@@ -1720,7 +1724,7 @@
         <v>117</v>
       </c>
     </row>
-    <row r="9" spans="1:6">
+    <row r="9" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
         <v>12</v>
       </c>
@@ -1737,7 +1741,7 @@
         <v>117</v>
       </c>
     </row>
-    <row r="10" spans="1:6">
+    <row r="10" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
         <v>126</v>
       </c>
@@ -1754,7 +1758,7 @@
         <v>117</v>
       </c>
     </row>
-    <row r="11" spans="1:6">
+    <row r="11" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
         <v>128</v>
       </c>
@@ -1771,7 +1775,7 @@
         <v>117</v>
       </c>
     </row>
-    <row r="12" spans="1:6">
+    <row r="12" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
         <v>129</v>
       </c>
@@ -1788,7 +1792,7 @@
         <v>117</v>
       </c>
     </row>
-    <row r="13" spans="1:6">
+    <row r="13" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
         <v>130</v>
       </c>
@@ -1805,7 +1809,7 @@
         <v>117</v>
       </c>
     </row>
-    <row r="14" spans="1:6">
+    <row r="14" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A14" t="s">
         <v>133</v>
       </c>
@@ -1822,7 +1826,7 @@
         <v>117</v>
       </c>
     </row>
-    <row r="15" spans="1:6">
+    <row r="15" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A15" t="s">
         <v>135</v>
       </c>
@@ -1839,7 +1843,7 @@
         <v>117</v>
       </c>
     </row>
-    <row r="16" spans="1:6">
+    <row r="16" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A16" t="s">
         <v>136</v>
       </c>
@@ -1856,7 +1860,7 @@
         <v>117</v>
       </c>
     </row>
-    <row r="17" spans="1:5">
+    <row r="17" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A17" t="s">
         <v>137</v>
       </c>
@@ -1873,7 +1877,7 @@
         <v>117</v>
       </c>
     </row>
-    <row r="18" spans="1:5">
+    <row r="18" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A18" t="s">
         <v>138</v>
       </c>
@@ -1890,7 +1894,7 @@
         <v>117</v>
       </c>
     </row>
-    <row r="19" spans="1:5">
+    <row r="19" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A19" t="s">
         <v>139</v>
       </c>
@@ -1907,7 +1911,7 @@
         <v>117</v>
       </c>
     </row>
-    <row r="20" spans="1:5">
+    <row r="20" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A20" t="s">
         <v>140</v>
       </c>
@@ -1924,7 +1928,7 @@
         <v>117</v>
       </c>
     </row>
-    <row r="21" spans="1:5">
+    <row r="21" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A21" t="s">
         <v>141</v>
       </c>
@@ -1941,490 +1945,490 @@
         <v>117</v>
       </c>
     </row>
-    <row r="22" spans="1:5">
+    <row r="22" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A22"/>
       <c r="B22"/>
       <c r="C22" s="5"/>
       <c r="D22" s="5"/>
       <c r="E22" s="5"/>
     </row>
-    <row r="23" spans="1:5">
+    <row r="23" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A23"/>
       <c r="B23"/>
       <c r="C23" s="5"/>
       <c r="D23" s="5"/>
       <c r="E23" s="5"/>
     </row>
-    <row r="24" spans="1:5">
+    <row r="24" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A24"/>
       <c r="B24"/>
       <c r="C24" s="5"/>
       <c r="D24" s="5"/>
       <c r="E24" s="5"/>
     </row>
-    <row r="25" spans="1:5">
+    <row r="25" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A25"/>
       <c r="B25"/>
       <c r="C25" s="5"/>
       <c r="D25" s="5"/>
       <c r="E25" s="5"/>
     </row>
-    <row r="26" spans="1:5">
+    <row r="26" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A26"/>
       <c r="B26"/>
       <c r="C26" s="5"/>
       <c r="D26" s="5"/>
       <c r="E26" s="5"/>
     </row>
-    <row r="27" spans="1:5">
+    <row r="27" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A27"/>
       <c r="B27"/>
       <c r="C27" s="5"/>
       <c r="D27" s="5"/>
       <c r="E27" s="5"/>
     </row>
-    <row r="28" spans="1:5">
+    <row r="28" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A28"/>
       <c r="B28"/>
       <c r="C28" s="5"/>
       <c r="D28" s="5"/>
       <c r="E28" s="5"/>
     </row>
-    <row r="29" spans="1:5">
+    <row r="29" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A29"/>
       <c r="B29"/>
       <c r="C29" s="5"/>
       <c r="D29" s="5"/>
       <c r="E29" s="5"/>
     </row>
-    <row r="30" spans="1:5">
+    <row r="30" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A30"/>
       <c r="B30"/>
       <c r="C30" s="5"/>
       <c r="D30" s="5"/>
       <c r="E30" s="5"/>
     </row>
-    <row r="31" spans="1:5">
+    <row r="31" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A31"/>
       <c r="B31"/>
       <c r="C31" s="5"/>
       <c r="D31" s="5"/>
       <c r="E31" s="5"/>
     </row>
-    <row r="32" spans="1:5">
+    <row r="32" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A32"/>
       <c r="B32"/>
       <c r="C32" s="5"/>
       <c r="D32" s="5"/>
       <c r="E32" s="5"/>
     </row>
-    <row r="33" spans="1:5">
+    <row r="33" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A33"/>
       <c r="B33"/>
       <c r="C33" s="5"/>
       <c r="D33" s="5"/>
       <c r="E33" s="5"/>
     </row>
-    <row r="34" spans="1:5">
+    <row r="34" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A34"/>
       <c r="B34"/>
       <c r="C34" s="5"/>
       <c r="D34" s="5"/>
       <c r="E34" s="5"/>
     </row>
-    <row r="35" spans="1:5">
+    <row r="35" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A35"/>
       <c r="B35"/>
       <c r="C35" s="5"/>
       <c r="D35" s="5"/>
       <c r="E35" s="5"/>
     </row>
-    <row r="36" spans="1:5">
+    <row r="36" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A36"/>
       <c r="B36"/>
       <c r="C36" s="5"/>
       <c r="D36" s="5"/>
       <c r="E36" s="5"/>
     </row>
-    <row r="37" spans="1:5">
+    <row r="37" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A37"/>
       <c r="B37"/>
       <c r="C37" s="5"/>
       <c r="D37" s="5"/>
       <c r="E37" s="5"/>
     </row>
-    <row r="38" spans="1:5">
+    <row r="38" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A38"/>
       <c r="B38"/>
       <c r="C38" s="5"/>
       <c r="D38" s="5"/>
       <c r="E38" s="5"/>
     </row>
-    <row r="39" spans="1:5">
+    <row r="39" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A39"/>
       <c r="B39"/>
       <c r="C39" s="5"/>
       <c r="D39" s="5"/>
       <c r="E39" s="5"/>
     </row>
-    <row r="40" spans="1:5">
+    <row r="40" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A40"/>
       <c r="B40"/>
       <c r="C40" s="5"/>
       <c r="D40" s="5"/>
       <c r="E40" s="5"/>
     </row>
-    <row r="41" spans="1:5">
+    <row r="41" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A41"/>
       <c r="B41"/>
       <c r="C41" s="5"/>
       <c r="D41" s="5"/>
       <c r="E41" s="5"/>
     </row>
-    <row r="42" spans="1:5">
+    <row r="42" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A42"/>
       <c r="B42"/>
       <c r="C42" s="5"/>
       <c r="D42" s="5"/>
       <c r="E42" s="5"/>
     </row>
-    <row r="43" spans="1:5">
+    <row r="43" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A43"/>
       <c r="B43"/>
       <c r="C43" s="5"/>
       <c r="D43" s="5"/>
       <c r="E43" s="5"/>
     </row>
-    <row r="44" spans="1:5">
+    <row r="44" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A44"/>
       <c r="B44"/>
       <c r="C44" s="5"/>
       <c r="D44" s="5"/>
       <c r="E44" s="5"/>
     </row>
-    <row r="45" spans="1:5">
+    <row r="45" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A45"/>
       <c r="B45"/>
       <c r="C45" s="5"/>
       <c r="D45" s="5"/>
       <c r="E45" s="5"/>
     </row>
-    <row r="46" spans="1:5">
+    <row r="46" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A46"/>
       <c r="B46"/>
       <c r="C46" s="5"/>
       <c r="D46" s="5"/>
       <c r="E46" s="5"/>
     </row>
-    <row r="47" spans="1:5">
+    <row r="47" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A47"/>
       <c r="B47"/>
       <c r="C47" s="5"/>
       <c r="D47" s="5"/>
       <c r="E47" s="5"/>
     </row>
-    <row r="48" spans="1:5">
+    <row r="48" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A48"/>
       <c r="B48"/>
       <c r="C48" s="5"/>
       <c r="D48" s="5"/>
       <c r="E48" s="5"/>
     </row>
-    <row r="49" spans="1:5">
+    <row r="49" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A49"/>
       <c r="B49"/>
       <c r="C49" s="5"/>
       <c r="D49" s="5"/>
       <c r="E49" s="5"/>
     </row>
-    <row r="50" spans="1:5">
+    <row r="50" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A50"/>
       <c r="B50"/>
       <c r="C50" s="5"/>
       <c r="D50" s="5"/>
       <c r="E50" s="5"/>
     </row>
-    <row r="51" spans="1:5">
+    <row r="51" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A51"/>
       <c r="B51"/>
       <c r="C51" s="5"/>
       <c r="D51" s="5"/>
       <c r="E51" s="5"/>
     </row>
-    <row r="52" spans="1:5">
+    <row r="52" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A52"/>
       <c r="B52"/>
       <c r="C52" s="5"/>
       <c r="D52" s="5"/>
       <c r="E52" s="5"/>
     </row>
-    <row r="53" spans="1:5">
+    <row r="53" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A53"/>
       <c r="B53"/>
       <c r="C53" s="5"/>
       <c r="D53" s="5"/>
       <c r="E53" s="5"/>
     </row>
-    <row r="54" spans="1:5">
+    <row r="54" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A54"/>
       <c r="B54"/>
       <c r="C54" s="5"/>
       <c r="D54" s="5"/>
       <c r="E54" s="5"/>
     </row>
-    <row r="55" spans="1:5">
+    <row r="55" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A55"/>
       <c r="B55"/>
       <c r="C55" s="5"/>
       <c r="D55" s="5"/>
       <c r="E55" s="5"/>
     </row>
-    <row r="56" spans="1:5">
+    <row r="56" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A56"/>
       <c r="B56"/>
       <c r="C56" s="5"/>
       <c r="D56" s="5"/>
       <c r="E56" s="5"/>
     </row>
-    <row r="57" spans="1:5">
+    <row r="57" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A57"/>
       <c r="B57"/>
       <c r="C57" s="5"/>
       <c r="D57" s="5"/>
       <c r="E57" s="5"/>
     </row>
-    <row r="58" spans="1:5">
+    <row r="58" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A58"/>
       <c r="B58"/>
       <c r="C58" s="5"/>
       <c r="D58" s="5"/>
       <c r="E58" s="5"/>
     </row>
-    <row r="59" spans="1:5">
+    <row r="59" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A59"/>
       <c r="B59"/>
       <c r="C59" s="5"/>
       <c r="D59" s="5"/>
       <c r="E59" s="5"/>
     </row>
-    <row r="60" spans="1:5">
+    <row r="60" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A60"/>
       <c r="B60"/>
       <c r="C60" s="5"/>
       <c r="D60" s="5"/>
       <c r="E60" s="5"/>
     </row>
-    <row r="61" spans="1:5">
+    <row r="61" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A61"/>
       <c r="B61"/>
       <c r="C61" s="5"/>
       <c r="D61" s="5"/>
       <c r="E61" s="5"/>
     </row>
-    <row r="62" spans="1:5">
+    <row r="62" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A62"/>
       <c r="B62"/>
       <c r="C62" s="5"/>
       <c r="D62" s="5"/>
       <c r="E62" s="5"/>
     </row>
-    <row r="63" spans="1:5">
+    <row r="63" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A63"/>
       <c r="B63"/>
       <c r="C63" s="5"/>
       <c r="D63" s="5"/>
       <c r="E63" s="5"/>
     </row>
-    <row r="64" spans="1:5">
+    <row r="64" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A64"/>
       <c r="B64"/>
       <c r="C64" s="5"/>
       <c r="D64" s="5"/>
       <c r="E64" s="5"/>
     </row>
-    <row r="65" spans="1:5">
+    <row r="65" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A65"/>
       <c r="B65"/>
       <c r="C65" s="5"/>
       <c r="D65" s="5"/>
       <c r="E65" s="5"/>
     </row>
-    <row r="66" spans="1:5">
+    <row r="66" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A66"/>
       <c r="B66"/>
       <c r="C66" s="5"/>
       <c r="D66" s="5"/>
       <c r="E66" s="5"/>
     </row>
-    <row r="67" spans="1:5">
+    <row r="67" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A67"/>
       <c r="B67"/>
       <c r="C67" s="5"/>
       <c r="D67" s="5"/>
       <c r="E67" s="5"/>
     </row>
-    <row r="68" spans="1:5">
+    <row r="68" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A68"/>
       <c r="B68"/>
       <c r="C68" s="5"/>
       <c r="D68" s="5"/>
       <c r="E68" s="5"/>
     </row>
-    <row r="69" spans="1:5">
+    <row r="69" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A69"/>
       <c r="B69"/>
       <c r="C69" s="5"/>
       <c r="D69" s="5"/>
       <c r="E69" s="5"/>
     </row>
-    <row r="70" spans="1:5">
+    <row r="70" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A70"/>
       <c r="B70"/>
       <c r="C70" s="5"/>
       <c r="D70" s="5"/>
       <c r="E70" s="5"/>
     </row>
-    <row r="71" spans="1:5">
+    <row r="71" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A71"/>
       <c r="B71"/>
       <c r="C71" s="5"/>
       <c r="D71" s="5"/>
       <c r="E71" s="5"/>
     </row>
-    <row r="72" spans="1:5">
+    <row r="72" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A72"/>
       <c r="B72"/>
       <c r="C72" s="5"/>
       <c r="D72" s="5"/>
       <c r="E72" s="5"/>
     </row>
-    <row r="73" spans="1:5">
+    <row r="73" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A73"/>
       <c r="B73"/>
       <c r="C73" s="5"/>
       <c r="D73" s="5"/>
       <c r="E73" s="5"/>
     </row>
-    <row r="74" spans="1:5">
+    <row r="74" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A74"/>
       <c r="B74"/>
       <c r="C74" s="5"/>
       <c r="D74" s="5"/>
       <c r="E74" s="5"/>
     </row>
-    <row r="75" spans="1:5">
+    <row r="75" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A75"/>
       <c r="B75"/>
       <c r="C75" s="5"/>
       <c r="D75" s="5"/>
       <c r="E75" s="5"/>
     </row>
-    <row r="76" spans="1:5">
+    <row r="76" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A76"/>
       <c r="B76"/>
       <c r="C76" s="5"/>
       <c r="D76" s="5"/>
       <c r="E76" s="5"/>
     </row>
-    <row r="77" spans="1:5">
+    <row r="77" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A77"/>
       <c r="B77"/>
       <c r="C77" s="5"/>
       <c r="D77" s="5"/>
       <c r="E77" s="5"/>
     </row>
-    <row r="78" spans="1:5">
+    <row r="78" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A78"/>
       <c r="B78"/>
       <c r="C78" s="5"/>
       <c r="D78" s="5"/>
       <c r="E78" s="5"/>
     </row>
-    <row r="79" spans="1:5">
+    <row r="79" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A79"/>
       <c r="B79"/>
       <c r="C79" s="5"/>
       <c r="D79" s="5"/>
       <c r="E79" s="5"/>
     </row>
-    <row r="80" spans="1:5">
+    <row r="80" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A80"/>
       <c r="B80"/>
       <c r="C80" s="5"/>
       <c r="D80" s="5"/>
       <c r="E80" s="5"/>
     </row>
-    <row r="81" spans="1:5">
+    <row r="81" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A81"/>
       <c r="B81"/>
       <c r="C81" s="5"/>
       <c r="D81" s="5"/>
       <c r="E81" s="5"/>
     </row>
-    <row r="82" spans="1:5">
+    <row r="82" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A82"/>
       <c r="B82"/>
       <c r="C82" s="5"/>
       <c r="D82" s="5"/>
       <c r="E82" s="5"/>
     </row>
-    <row r="83" spans="1:5">
+    <row r="83" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A83"/>
       <c r="B83"/>
       <c r="C83" s="5"/>
       <c r="D83" s="5"/>
       <c r="E83" s="5"/>
     </row>
-    <row r="84" spans="1:5">
+    <row r="84" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A84"/>
       <c r="B84"/>
       <c r="C84" s="5"/>
       <c r="D84" s="5"/>
       <c r="E84" s="5"/>
     </row>
-    <row r="85" spans="1:5">
+    <row r="85" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A85"/>
       <c r="B85"/>
       <c r="C85" s="5"/>
       <c r="D85" s="5"/>
       <c r="E85" s="5"/>
     </row>
-    <row r="86" spans="1:5">
+    <row r="86" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A86"/>
       <c r="B86"/>
       <c r="C86" s="5"/>
       <c r="D86" s="5"/>
       <c r="E86" s="5"/>
     </row>
-    <row r="87" spans="1:5">
+    <row r="87" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A87"/>
       <c r="B87"/>
       <c r="C87" s="5"/>
       <c r="D87" s="5"/>
       <c r="E87" s="5"/>
     </row>
-    <row r="88" spans="1:5">
+    <row r="88" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A88"/>
       <c r="B88"/>
       <c r="C88" s="5"/>
       <c r="D88" s="5"/>
       <c r="E88" s="5"/>
     </row>
-    <row r="89" spans="1:5">
+    <row r="89" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A89"/>
       <c r="B89"/>
       <c r="C89" s="5"/>
       <c r="D89" s="5"/>
       <c r="E89" s="5"/>
     </row>
-    <row r="90" spans="1:5">
+    <row r="90" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A90"/>
       <c r="B90"/>
       <c r="C90" s="5"/>
       <c r="D90" s="5"/>
       <c r="E90" s="5"/>
     </row>
-    <row r="1048576" spans="2:2">
+    <row r="1048576" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B1048576"/>
     </row>
   </sheetData>
@@ -2441,52 +2445,52 @@
       <selection activeCell="D12" sqref="D12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.6640625" defaultRowHeight="17.25"/>
+  <sheetFormatPr defaultColWidth="8.6640625" defaultRowHeight="17.25" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="12" style="2" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:1">
+    <row r="1" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A1" s="3" t="s">
         <v>95</v>
       </c>
     </row>
-    <row r="2" spans="1:1">
+    <row r="2" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>116</v>
       </c>
     </row>
-    <row r="3" spans="1:1">
+    <row r="3" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>122</v>
       </c>
     </row>
-    <row r="4" spans="1:1">
+    <row r="4" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="5" spans="1:1">
+    <row r="5" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="6" spans="1:1">
+    <row r="6" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="7" spans="1:1">
+    <row r="7" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="8" spans="1:1">
+    <row r="8" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="9" spans="1:1">
+    <row r="9" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
         <v>12</v>
       </c>
@@ -2505,82 +2509,82 @@
       <selection activeCell="B7" sqref="B7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.6640625" defaultRowHeight="17.25"/>
+  <sheetFormatPr defaultColWidth="8.6640625" defaultRowHeight="17.25" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="21.6640625" style="2" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:1">
+    <row r="1" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A1" s="3" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="2" spans="1:1">
+    <row r="2" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>123</v>
       </c>
     </row>
-    <row r="3" spans="1:1">
+    <row r="3" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="4" spans="1:1">
+    <row r="4" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="5" spans="1:1">
+    <row r="5" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="6" spans="1:1">
+    <row r="6" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="7" spans="1:1">
+    <row r="7" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="8" spans="1:1">
+    <row r="8" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="9" spans="1:1">
+    <row r="9" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
         <v>21</v>
       </c>
     </row>
-    <row r="10" spans="1:1">
+    <row r="10" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
         <v>22</v>
       </c>
     </row>
-    <row r="11" spans="1:1">
+    <row r="11" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
         <v>23</v>
       </c>
     </row>
-    <row r="12" spans="1:1">
+    <row r="12" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
         <v>24</v>
       </c>
     </row>
-    <row r="13" spans="1:1">
+    <row r="13" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
         <v>25</v>
       </c>
     </row>
-    <row r="14" spans="1:1">
+    <row r="14" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A14" t="s">
         <v>26</v>
       </c>
     </row>
-    <row r="15" spans="1:1">
+    <row r="15" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A15" s="1" t="s">
         <v>27</v>
       </c>
@@ -2599,13 +2603,13 @@
       <selection activeCell="B15" sqref="B15"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.6640625" defaultRowHeight="17.25"/>
+  <sheetFormatPr defaultColWidth="8.6640625" defaultRowHeight="17.25" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="19" style="2" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="20.33203125" style="2" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A1" s="4" t="s">
         <v>28</v>
       </c>
@@ -2613,7 +2617,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="2" spans="1:2">
+    <row r="2" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>14</v>
       </c>
@@ -2621,7 +2625,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="3" spans="1:2">
+    <row r="3" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>31</v>
       </c>
@@ -2629,7 +2633,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="4" spans="1:2">
+    <row r="4" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
         <v>15</v>
       </c>
@@ -2637,7 +2641,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="5" spans="1:2">
+    <row r="5" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
         <v>16</v>
       </c>
@@ -2645,7 +2649,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="6" spans="1:2">
+    <row r="6" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
         <v>17</v>
       </c>
@@ -2653,7 +2657,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="7" spans="1:2">
+    <row r="7" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
         <v>18</v>
       </c>
@@ -2661,7 +2665,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="8" spans="1:2">
+    <row r="8" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
         <v>19</v>
       </c>
@@ -2669,7 +2673,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="9" spans="1:2">
+    <row r="9" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
         <v>20</v>
       </c>
@@ -2677,7 +2681,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="10" spans="1:2">
+    <row r="10" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
         <v>21</v>
       </c>
@@ -2685,7 +2689,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="11" spans="1:2">
+    <row r="11" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
         <v>22</v>
       </c>
@@ -2693,7 +2697,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="12" spans="1:2">
+    <row r="12" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
         <v>23</v>
       </c>
@@ -2701,7 +2705,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="13" spans="1:2">
+    <row r="13" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
         <v>24</v>
       </c>
@@ -2709,7 +2713,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="14" spans="1:2">
+    <row r="14" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A14" t="s">
         <v>25</v>
       </c>
@@ -2717,18 +2721,18 @@
         <v>43</v>
       </c>
     </row>
-    <row r="15" spans="1:2">
+    <row r="15" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A15" t="s">
         <v>26</v>
       </c>
       <c r="B15" s="1"/>
     </row>
-    <row r="16" spans="1:2">
+    <row r="16" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A16" s="1" t="s">
         <v>27</v>
       </c>
     </row>
-    <row r="17" spans="2:2">
+    <row r="17" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B17" s="1"/>
     </row>
   </sheetData>
@@ -2745,14 +2749,14 @@
       <selection activeCell="F33" sqref="F33"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.6640625" defaultRowHeight="17.25"/>
+  <sheetFormatPr defaultColWidth="8.6640625" defaultRowHeight="17.25" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="19" style="2" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="20.33203125" style="2" customWidth="1"/>
     <col min="7" max="7" width="10.6640625" style="2" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A1" s="4" t="s">
         <v>28</v>
       </c>
@@ -2760,79 +2764,79 @@
         <v>29</v>
       </c>
     </row>
-    <row r="2" spans="1:2">
+    <row r="2" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>44</v>
       </c>
       <c r="B2" s="1"/>
     </row>
-    <row r="3" spans="1:2">
+    <row r="3" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>45</v>
       </c>
       <c r="B3" s="1"/>
     </row>
-    <row r="4" spans="1:2">
+    <row r="4" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
         <v>46</v>
       </c>
       <c r="B4" s="1"/>
     </row>
-    <row r="5" spans="1:2">
+    <row r="5" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
         <v>47</v>
       </c>
       <c r="B5" s="1"/>
     </row>
-    <row r="6" spans="1:2">
+    <row r="6" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
         <v>48</v>
       </c>
       <c r="B6" s="1"/>
     </row>
-    <row r="7" spans="1:2">
+    <row r="7" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
         <v>49</v>
       </c>
       <c r="B7" s="1"/>
     </row>
-    <row r="8" spans="1:2">
+    <row r="8" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
         <v>50</v>
       </c>
       <c r="B8" s="1"/>
     </row>
-    <row r="9" spans="1:2">
+    <row r="9" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
         <v>51</v>
       </c>
       <c r="B9" s="1"/>
     </row>
-    <row r="10" spans="1:2">
+    <row r="10" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
         <v>52</v>
       </c>
       <c r="B10" s="1"/>
     </row>
-    <row r="11" spans="1:2">
+    <row r="11" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
         <v>53</v>
       </c>
       <c r="B11" s="1"/>
     </row>
-    <row r="12" spans="1:2">
+    <row r="12" spans="1:2" x14ac:dyDescent="0.3">
       <c r="B12" s="1"/>
     </row>
-    <row r="13" spans="1:2">
+    <row r="13" spans="1:2" x14ac:dyDescent="0.3">
       <c r="B13" s="1"/>
     </row>
-    <row r="14" spans="1:2">
+    <row r="14" spans="1:2" x14ac:dyDescent="0.3">
       <c r="B14" s="1"/>
     </row>
-    <row r="15" spans="1:2">
+    <row r="15" spans="1:2" x14ac:dyDescent="0.3">
       <c r="B15" s="1"/>
     </row>
-    <row r="16" spans="1:2">
+    <row r="16" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A16" s="1"/>
     </row>
   </sheetData>
@@ -2849,13 +2853,13 @@
       <selection activeCell="B25" sqref="B25"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.6640625" defaultRowHeight="17.25"/>
+  <sheetFormatPr defaultColWidth="8.6640625" defaultRowHeight="17.25" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="19" style="2" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="20.33203125" style="2" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A1" s="4" t="s">
         <v>28</v>
       </c>
@@ -2863,7 +2867,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="2" spans="1:2">
+    <row r="2" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>54</v>
       </c>
@@ -2871,7 +2875,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="3" spans="1:2">
+    <row r="3" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>56</v>
       </c>
@@ -2879,7 +2883,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="4" spans="1:2">
+    <row r="4" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
         <v>58</v>
       </c>
@@ -2887,7 +2891,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="5" spans="1:2">
+    <row r="5" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
         <v>60</v>
       </c>
@@ -2895,7 +2899,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="6" spans="1:2">
+    <row r="6" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
         <v>62</v>
       </c>
@@ -2903,7 +2907,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="7" spans="1:2">
+    <row r="7" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
         <v>64</v>
       </c>
@@ -2911,7 +2915,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="8" spans="1:2">
+    <row r="8" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
         <v>66</v>
       </c>
@@ -2919,7 +2923,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="9" spans="1:2">
+    <row r="9" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
         <v>68</v>
       </c>
@@ -2927,7 +2931,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="10" spans="1:2">
+    <row r="10" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
         <v>70</v>
       </c>
@@ -2935,7 +2939,7 @@
         <v>71</v>
       </c>
     </row>
-    <row r="11" spans="1:2">
+    <row r="11" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
         <v>72</v>
       </c>
@@ -2943,7 +2947,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="12" spans="1:2">
+    <row r="12" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
         <v>74</v>
       </c>
@@ -2951,7 +2955,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="13" spans="1:2">
+    <row r="13" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
         <v>76</v>
       </c>
@@ -2959,7 +2963,7 @@
         <v>77</v>
       </c>
     </row>
-    <row r="14" spans="1:2">
+    <row r="14" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A14" t="s">
         <v>78</v>
       </c>
@@ -2967,7 +2971,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="15" spans="1:2">
+    <row r="15" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A15" t="s">
         <v>80</v>
       </c>
@@ -2975,7 +2979,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="16" spans="1:2">
+    <row r="16" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A16" t="s">
         <v>82</v>
       </c>
@@ -2983,7 +2987,7 @@
         <v>83</v>
       </c>
     </row>
-    <row r="17" spans="1:2">
+    <row r="17" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A17" t="s">
         <v>84</v>
       </c>
@@ -3005,13 +3009,13 @@
       <selection activeCell="C26" sqref="C26"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.6640625" defaultRowHeight="17.25"/>
+  <sheetFormatPr defaultColWidth="8.6640625" defaultRowHeight="17.25" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="21" style="2" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="16.109375" style="2" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A1" s="3" t="s">
         <v>86</v>
       </c>
@@ -3022,7 +3026,7 @@
         <v>88</v>
       </c>
     </row>
-    <row r="2" spans="1:3">
+    <row r="2" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>89</v>
       </c>
@@ -3033,7 +3037,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="3" spans="1:3">
+    <row r="3" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>91</v>
       </c>
@@ -3044,7 +3048,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="4" spans="1:3">
+    <row r="4" spans="1:3" x14ac:dyDescent="0.3">
       <c r="B4" s="6" t="s">
         <v>47</v>
       </c>
@@ -3052,7 +3056,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="5" spans="1:3">
+    <row r="5" spans="1:3" x14ac:dyDescent="0.3">
       <c r="B5" s="6" t="s">
         <v>48</v>
       </c>
@@ -3060,7 +3064,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="6" spans="1:3">
+    <row r="6" spans="1:3" x14ac:dyDescent="0.3">
       <c r="B6" s="6" t="s">
         <v>49</v>
       </c>
@@ -3068,7 +3072,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="7" spans="1:3">
+    <row r="7" spans="1:3" x14ac:dyDescent="0.3">
       <c r="B7" s="6" t="s">
         <v>50</v>
       </c>
@@ -3076,7 +3080,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="8" spans="1:3">
+    <row r="8" spans="1:3" x14ac:dyDescent="0.3">
       <c r="B8" s="6" t="s">
         <v>51</v>
       </c>
@@ -3084,7 +3088,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="9" spans="1:3">
+    <row r="9" spans="1:3" x14ac:dyDescent="0.3">
       <c r="B9" s="6" t="s">
         <v>52</v>
       </c>
@@ -3092,7 +3096,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="10" spans="1:3">
+    <row r="10" spans="1:3" x14ac:dyDescent="0.3">
       <c r="B10" s="6" t="s">
         <v>53</v>
       </c>
@@ -3100,28 +3104,28 @@
         <v>90</v>
       </c>
     </row>
-    <row r="26" spans="2:2">
+    <row r="26" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B26" s="1"/>
     </row>
-    <row r="27" spans="2:2">
+    <row r="27" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B27" s="1"/>
     </row>
-    <row r="28" spans="2:2">
+    <row r="28" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B28" s="1"/>
     </row>
-    <row r="29" spans="2:2">
+    <row r="29" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B29" s="1"/>
     </row>
-    <row r="30" spans="2:2">
+    <row r="30" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B30" s="1"/>
     </row>
-    <row r="31" spans="2:2">
+    <row r="31" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B31" s="1"/>
     </row>
-    <row r="32" spans="2:2">
+    <row r="32" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B32" s="1"/>
     </row>
-    <row r="33" spans="2:2">
+    <row r="33" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B33" s="1"/>
     </row>
   </sheetData>
@@ -3138,13 +3142,13 @@
       <selection activeCell="U30" sqref="U30"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.6640625" defaultRowHeight="17.25"/>
+  <sheetFormatPr defaultColWidth="8.6640625" defaultRowHeight="17.25" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="12.6640625" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="8.5546875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A1" s="7" t="s">
         <v>87</v>
       </c>
@@ -3152,7 +3156,7 @@
         <v>88</v>
       </c>
     </row>
-    <row r="2" spans="1:2">
+    <row r="2" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>30</v>
       </c>
@@ -3160,7 +3164,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="3" spans="1:2">
+    <row r="3" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>32</v>
       </c>
@@ -3168,7 +3172,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="4" spans="1:2">
+    <row r="4" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
         <v>33</v>
       </c>
@@ -3176,7 +3180,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="5" spans="1:2">
+    <row r="5" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
         <v>34</v>
       </c>
@@ -3184,7 +3188,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="6" spans="1:2">
+    <row r="6" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
         <v>131</v>
       </c>
@@ -3192,7 +3196,7 @@
         <v>132</v>
       </c>
     </row>
-    <row r="7" spans="1:2">
+    <row r="7" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
         <v>39</v>
       </c>
@@ -3200,7 +3204,7 @@
         <v>92</v>
       </c>
     </row>
-    <row r="8" spans="1:2">
+    <row r="8" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
         <v>40</v>
       </c>
@@ -3208,7 +3212,7 @@
         <v>92</v>
       </c>
     </row>
-    <row r="9" spans="1:2">
+    <row r="9" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
         <v>41</v>
       </c>
@@ -3216,7 +3220,7 @@
         <v>92</v>
       </c>
     </row>
-    <row r="10" spans="1:2">
+    <row r="10" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
         <v>42</v>
       </c>
@@ -3224,7 +3228,7 @@
         <v>92</v>
       </c>
     </row>
-    <row r="11" spans="1:2">
+    <row r="11" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
         <v>43</v>
       </c>
